--- a/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,706 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r584870364-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>12263357</t>
+  </si>
+  <si>
+    <t>584870364</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Wheat field</t>
+  </si>
+  <si>
+    <t>This was farmland 20 years ago and know it’s almost an urban jungle. We come down for weekend staycations.  Cheap rooms and fun place. Great fire pit in the winter and great roof top pool in the summer. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This was farmland 20 years ago and know it’s almost an urban jungle. We come down for weekend staycations.  Cheap rooms and fun place. Great fire pit in the winter and great roof top pool in the summer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r584377424-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>584377424</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel, Service Pushed it Over the Top</t>
+  </si>
+  <si>
+    <t>I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. 
+The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. 
+We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat...I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat Texas suburbs were nice. The Club lounge served a decent breakfast with plenty of fruits, cereals, pastries, as well as hot eggs. The nearby Legacy West area had plenty of restaurants and shopping to take in all the Dallas suburbs has to offer (the people watching is excellent). Overall a great stay, and this will be my new go to hotel when visiting family in the Frisco area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. 
+The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. 
+We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat...I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat Texas suburbs were nice. The Club lounge served a decent breakfast with plenty of fruits, cereals, pastries, as well as hot eggs. The nearby Legacy West area had plenty of restaurants and shopping to take in all the Dallas suburbs has to offer (the people watching is excellent). Overall a great stay, and this will be my new go to hotel when visiting family in the Frisco area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r583335507-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583335507</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Thoroughly Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance...When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance and a few retail shops too.  I was able to pick up a few things  I forgot to bring at Sephora. Perfecton!  I look forward to another visit when I am in town for work next. Go forth and stay!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance...When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance and a few retail shops too.  I was able to pick up a few things  I forgot to bring at Sephora. Perfecton!  I look forward to another visit when I am in town for work next. Go forth and stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r576467718-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>576467718</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Luxury in Plano</t>
+  </si>
+  <si>
+    <t>Located at the tip of Legacy West, the Renaissance is your hub to walking the various shops, bars and restaurants in the area. Need to skip elsewhere, the Dallas Parkway and Sam Rayburn Tollway are right there. The staff is warm and welcoming, across the property with rooms that make you feel like home may be a forgotten memory. Mood lights in the bathroom, set the tone of your shower experience, and don't miss the pool deck on a clear day!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Located at the tip of Legacy West, the Renaissance is your hub to walking the various shops, bars and restaurants in the area. Need to skip elsewhere, the Dallas Parkway and Sam Rayburn Tollway are right there. The staff is warm and welcoming, across the property with rooms that make you feel like home may be a forgotten memory. Mood lights in the bathroom, set the tone of your shower experience, and don't miss the pool deck on a clear day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575943304-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575943304</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>This hotel sucks</t>
+  </si>
+  <si>
+    <t>This hotel really sucks.  The day I was supposed to check in I arrived at noon and was very unapologetically informed that they were "over sold" and I would have to stay in their sister property - the Marriott near the Shops at Legacy.  There was no reason given, I was part of a group and no other members of my group were singled out and sent to the Marriott.  I would never recommend this hotel.  I am only giving it one star because of the friendliness of the catering staff.  The manager was absolutely horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>This hotel really sucks.  The day I was supposed to check in I arrived at noon and was very unapologetically informed that they were "over sold" and I would have to stay in their sister property - the Marriott near the Shops at Legacy.  There was no reason given, I was part of a group and no other members of my group were singled out and sent to the Marriott.  I would never recommend this hotel.  I am only giving it one star because of the friendliness of the catering staff.  The manager was absolutely horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575263628-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575263628</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Very new;  modern and convenient in Legacy area</t>
+  </si>
+  <si>
+    <t>2 night stay for a business meetingVery new hotel, great location for visiting Plano Legacy area, with tons of high end dining and retail, close to businesses in Legacy areaJust off the North Dallas Tollway, easy in and outParking easy and convenientRooms new and clean, modern designStaff was pleasant, friendly, and helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>2 night stay for a business meetingVery new hotel, great location for visiting Plano Legacy area, with tons of high end dining and retail, close to businesses in Legacy areaJust off the North Dallas Tollway, easy in and outParking easy and convenientRooms new and clean, modern designStaff was pleasant, friendly, and helpfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r569186677-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569186677</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Fantastic new property in great location!</t>
+  </si>
+  <si>
+    <t>Unfortunately I was only at the property for 13 hours but loved it. Rooms are nice, clean, new! Aveda products in the bath and plush towels.  Comfy bed and bedding, good TV, real creamer for coffee (I hate the powder crap) and location next to the mall with everything you want/need. Will make this my go to when in Plano.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r568443928-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>568443928</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern hotel near shopping and restaurant area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent several days here for a conference.  The room was large and well decorated.  There was only a shower, no bathtub. The bed was terrific.  There was a smart TV and reliable WiFi.  Coffee maker was available in the room.  There is a restaurant and a bar on premise along with a coffee and snack area.  The rooms were very quiet.  Nice location near shopping and restaurants. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r567970408-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>567970408</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Very clean, professional hotel</t>
+  </si>
+  <si>
+    <t>While clearly a conference hotel, which is why I was there, it was very nice, clean, great staff, and good layout. Rooms were reasonable size and lots of good restaurants in the adjacent outdoor mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>While clearly a conference hotel, which is why I was there, it was very nice, clean, great staff, and good layout. Rooms were reasonable size and lots of good restaurants in the adjacent outdoor mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r565681937-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>565681937</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect weekend Getaway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful modern hotel with unique Asian accents. Hotel staff is attentive and gracious.  Rooms are clean, with comfortable furnishings, and the higher floors have nice views. The location is ideal and the numerous shops and restaurants within walking distance are top notch.  We opted for the smaller room with the Asian style bathroom because we wanted a soaking tub with separate shower and loved the set up.  We enjoyed hanging out at the bar, the outdoor fire pit, and the pool.  We highly recommend walking to the Legacy Food Hall too.  We will be back!  Thanks for a great weekend! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564366248-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>564366248</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Loved this hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I stayed 2 nights at this hotel to celebrate our 20th anniversary. The staff was attentive, even helped us find good restaurants in the area. We will stay at this hotel again when we want a staycation.  </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564260883-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>564260883</t>
+  </si>
+  <si>
+    <t>New Exotic East Meets West Hotel</t>
+  </si>
+  <si>
+    <t>A brand new exotic hotel of Marriott in the upscale area of Legacy, Plano (Dallas), TX.The "East meets West"concept is original and nice.Here, you find western style with a flare of Asia. Excellent customer service throughout along with great rooms, amenities and conveniences. Must try!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>A brand new exotic hotel of Marriott in the upscale area of Legacy, Plano (Dallas), TX.The "East meets West"concept is original and nice.Here, you find western style with a flare of Asia. Excellent customer service throughout along with great rooms, amenities and conveniences. Must try!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r561581409-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>561581409</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>A great surprise!!! Excellent choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The renaissance at Plano is a great hotel. The hotel is new and functional. The room is comfirtable and spacious. It has all the required ammenities like usb chargers and power outlets. The TV has internet options like Hulu or Netflix! Nice! The bathroom has different color lights... cool... The decor is modern and cool. The hotel has a nice outdoor pool &amp; Jacuzzi... also a nice gym!!! The hotel also has a very nice Bar with great ambiance (I stayed for a weekend) The service was excellent!!! Great choice... highly recommended!!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r559513659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559513659</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Pristine Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been to quite a few Marriott and Renaissance hotels over the past few years and this is the one by which all others should be judged. The rooms are spacious and well decorated. I was suspicious about the shower mood lighting but it was actually quite effective in reducing stress and being bright and uplifting in the morning. The rooftop pool is beautiful and the gym has everything you could need. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r557567757-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>557567757</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t>My daughter found out she would be at the Renaissance Dallas at Plano Legacy West Hotel for business on her birthday. I wasn't sure what to do and found myself perusing local florists but then realized how silly that would be since she can't bring flowers on the plane. So I called the hotel and spoke w. Ben Shoemaker, Rooms Controller who put my mind at ease. He sent me a hotel amenity form which I filled out and immediately he fulfilled my request. I have no immediate plans to go to Texas, however now I want to go, just to visit the hotel and thank Ben personally. Thank you Ben, for all you do!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>My daughter found out she would be at the Renaissance Dallas at Plano Legacy West Hotel for business on her birthday. I wasn't sure what to do and found myself perusing local florists but then realized how silly that would be since she can't bring flowers on the plane. So I called the hotel and spoke w. Ben Shoemaker, Rooms Controller who put my mind at ease. He sent me a hotel amenity form which I filled out and immediately he fulfilled my request. I have no immediate plans to go to Texas, however now I want to go, just to visit the hotel and thank Ben personally. Thank you Ben, for all you do!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r548067182-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>548067182</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>I attended my wife’s Holiday party on December 16, the event was for 1000ppl. The group had bought out almost all the guestrooms and the meeting space. Upon arriving valet was all over it, very friendly and willing to assist. The check-in process was fast and friendly. We grabbed a quick drink at the lobby bar and dashes to our room. Beautiful guestroom, liked the mood lighting in the bathroom. The event was great (I’m in the business and was looking for things) service was excellent, food was tasty only drawback was the bar lines, but it was 1000ppl on a host bar. Love the décor of the hotel- Very cool place and I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I attended my wife’s Holiday party on December 16, the event was for 1000ppl. The group had bought out almost all the guestrooms and the meeting space. Upon arriving valet was all over it, very friendly and willing to assist. The check-in process was fast and friendly. We grabbed a quick drink at the lobby bar and dashes to our room. Beautiful guestroom, liked the mood lighting in the bathroom. The event was great (I’m in the business and was looking for things) service was excellent, food was tasty only drawback was the bar lines, but it was 1000ppl on a host bar. Love the décor of the hotel- Very cool place and I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547971440-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547971440</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful new hotel located just steps from the shops and restaurants at Legacy West.  Huge lobby with lots of seating areas.  Very professional and friendly staff from the moment we drove up to check in with lots of great suggestions on what to do and where to eat.  Room was very nice and super clean.  Very comfy bed and nice bathroom.  Bathroom could use additional lighting for makeup.  So much shopping nearby you could stay for days!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547655505-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547655505</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Spectacular Hotel with impeccable service</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a whole week to attend a company training event, the service was impeccable from the moment I walked thru the door until the moment I left.  The food served to our 100+ group was some of the best I ever had at a large meeting, the bar is spectacular and served the best Old Fashion I have eve had.  The gym and the pool are perfect</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r543171939-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>543171939</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Thanksgiving Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the staff is phenomenal and the facility is great and nicely kept. We had a great breakfast. We will definitely will stay here again on our next visit. Great choice if you're in the Plano area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542410941-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542410941</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>New and fresh hotel with great service just beside the shops at West Legacy. The rooms were new, modern and comfortable, with nice decor. Loved the theme with a mix of asian elements and Texas style. Had a nice room on the 10th floor with floor to ceiling windows. Great bathroom. Had breakfast one morning and it was very good. Nice bar and reception. Attentive and friendly staff all over. Definitely a place we will come back to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542267318-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542267318</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Nice and new, but a few weird quirks</t>
+  </si>
+  <si>
+    <t>I stayed here on business in November 2017.  I had a king room confirmed, but when I checked in at 3pm, they had no king rooms.  I explained it was confirmed and all they could say is they had none.  Needless to say I was not at all happy from the start, but that was just check-in.The hotel is new so everything is nice.  The staff is very nice, as are the facilities.  The hotel is a modern style hotel but is clearly sucking up to the Toyota offices nearby with a bizarre theme of The Orient meets Cowboy.  The room had 2 beds (see above... grr) with a pillow on one bed that said "Samurai" and a pillow on the other that said "cowboy".  There was a Texan quote scrawled vertically from the base of a mirror onto the ceiling from a Texan.  Having writing is not cute but especially the way they did it.  The hotel has artwork that is either cowboy or Japanese.  It makes no sense.  Those quirks aside, the important thing is that yes, this is a nice hotel where you will get a nice room and nice service.  The food was alright.  Not bad, not great.  If I were staying in Plano, I'd come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here on business in November 2017.  I had a king room confirmed, but when I checked in at 3pm, they had no king rooms.  I explained it was confirmed and all they could say is they had none.  Needless to say I was not at all happy from the start, but that was just check-in.The hotel is new so everything is nice.  The staff is very nice, as are the facilities.  The hotel is a modern style hotel but is clearly sucking up to the Toyota offices nearby with a bizarre theme of The Orient meets Cowboy.  The room had 2 beds (see above... grr) with a pillow on one bed that said "Samurai" and a pillow on the other that said "cowboy".  There was a Texan quote scrawled vertically from the base of a mirror onto the ceiling from a Texan.  Having writing is not cute but especially the way they did it.  The hotel has artwork that is either cowboy or Japanese.  It makes no sense.  Those quirks aside, the important thing is that yes, this is a nice hotel where you will get a nice room and nice service.  The food was alright.  Not bad, not great.  If I were staying in Plano, I'd come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r538745247-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>538745247</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Nice property but some things to look out for...</t>
+  </si>
+  <si>
+    <t>I stayed at this property for a few days and, overall, it was good. Some more details:Pros: New, good location (lots of dining options in the area, easy access to the tollways, about 30 min to the airport and downtown Dallas), good valet service, fast Internet and big rooms (I was upgraded).Cons: Expensive valet service, awkward toilet without a lot of space (at lease in my room), dirty rooms for a new hotels (dust, food on the floors from the last guest, etc.).In the end, I would stay at this property again; however, I will be mindful of other reviews regarding how clean it is. For such a new hotel, I would expect it to be in better shape...I am guessing that it has to do with growing pains or a poor management company.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this property for a few days and, overall, it was good. Some more details:Pros: New, good location (lots of dining options in the area, easy access to the tollways, about 30 min to the airport and downtown Dallas), good valet service, fast Internet and big rooms (I was upgraded).Cons: Expensive valet service, awkward toilet without a lot of space (at lease in my room), dirty rooms for a new hotels (dust, food on the floors from the last guest, etc.).In the end, I would stay at this property again; however, I will be mindful of other reviews regarding how clean it is. For such a new hotel, I would expect it to be in better shape...I am guessing that it has to do with growing pains or a poor management company.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r537272367-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>537272367</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel last weekend and it was absolutely beautiful! The location was perfect bar and restaurant a few step for the hotel! The hotel itself had a nice bar with strong drinkswe didn't have time to check out the hotel restaurant. The room were spacious, clean and very modern..FYI I love that the light in the shower change colors! The hotel itself had exciting, modern and beautifully decorated. It was too cold to go to the pool but it was nice. Overall it was a great stay. Things you should know parking is $17 a night and the drinks are great but pricey! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r536645659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>536645659</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding Hotel with Great Location </t>
+  </si>
+  <si>
+    <t>So this entire Legacy West deal is new and so is the hotel. Great location to travel all over metroplex and lots nearby. Walking to great food and shops and short courtesy suv drive to lots more. The hotel service is great. Awesome whiskey bar. Very cool decor that they refer to as Samurai Cowboy. Enuff said about that. I include pics. Good wifi, hot showers, and great king beds. Parking garage attached- self or valet. Big screens in the bar. Good but not great breakfast. Lounge is a must do. Very nice work out space and pool deck. Will definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r534958663-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>534958663</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We held our conference at this new hotel and everything was awesome!  The service was great and the hotel is beautiful. The room service person told me all about the amazing art throughout the hotel so they must train their personnel very well.  It's obvious that it is very well run.  Bravo!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r531049096-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>531049096</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would not stay here again </t>
+  </si>
+  <si>
+    <t>Stayed here while attending a conference. My room was next to the highway and starting about 5:30 the traffic noise was terrible and I couldn’t sleep. I suggest you request a room AWAY from the highway. The room was very nicely decorated and comfortable but didn’t have a bathtub which was different. I prefer baths to showers.We went to the hotel restaurant on our one hour break from the sessions and the 8 of us ordered either sandwiches or salads. It took 30 to 40 minutes to get our food ad they came out one at a time rather than all at once. Several of us had to take our lunch to go or we would be late to the next session. The restaurant manager didn’t apologize, instead she told us, this is not the kind of place you come for a quick lunch.  Really? You serve salads and sandwiches! Maybe it’s just growing pains for a new hotel, but I suggest you stay at the Hilton across the tollway until the Renaissance gets its act together.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a conference. My room was next to the highway and starting about 5:30 the traffic noise was terrible and I couldn’t sleep. I suggest you request a room AWAY from the highway. The room was very nicely decorated and comfortable but didn’t have a bathtub which was different. I prefer baths to showers.We went to the hotel restaurant on our one hour break from the sessions and the 8 of us ordered either sandwiches or salads. It took 30 to 40 minutes to get our food ad they came out one at a time rather than all at once. Several of us had to take our lunch to go or we would be late to the next session. The restaurant manager didn’t apologize, instead she told us, this is not the kind of place you come for a quick lunch.  Really? You serve salads and sandwiches! Maybe it’s just growing pains for a new hotel, but I suggest you stay at the Hilton across the tollway until the Renaissance gets its act together.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r530281094-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>530281094</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Gorgeous property</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying here for a family wedding, and it was the first wedding the hotel had hosted.  The entire stay was really lovely.  Check in was a breeze and everyone at the front desk was friendly and engaging.  Everything is truly top-notch.  I had called to make reservations long before they were even open and had the pleasure of speaking to the manager.  His way of following up with us after check in was really exceptional!!Thank you!!!  The hotel has some pretty amazing artwork throughout.  Make sure to take a few minutes to walk around and take it all in.  The pool area is fabulous and the spa just the right temp.  The food service around the pool was a little slow, but nothing bad.  The only thing I might comment on is there is a fragrance when you first enter the hotel lobby that at first is a nice touch, but it is so strong it gets a bit overwhelming.  Excellent location withso many shops and restaurants nearby.  We will definetly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying here for a family wedding, and it was the first wedding the hotel had hosted.  The entire stay was really lovely.  Check in was a breeze and everyone at the front desk was friendly and engaging.  Everything is truly top-notch.  I had called to make reservations long before they were even open and had the pleasure of speaking to the manager.  His way of following up with us after check in was really exceptional!!Thank you!!!  The hotel has some pretty amazing artwork throughout.  Make sure to take a few minutes to walk around and take it all in.  The pool area is fabulous and the spa just the right temp.  The food service around the pool was a little slow, but nothing bad.  The only thing I might comment on is there is a fragrance when you first enter the hotel lobby that at first is a nice touch, but it is so strong it gets a bit overwhelming.  Excellent location withso many shops and restaurants nearby.  We will definetly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r526558263-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>526558263</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>A very nice stay!</t>
+  </si>
+  <si>
+    <t>Another enjoyable stay at this hotel, it is new, clean, hip and centrally located. The staff is very friendly, the food great and the rooms are beautifully loaded with luxurious features! The only suggestion I have the bath soap, really, Days Inn style soap???</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r525201146-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>525201146</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little far from Dallas with traffic </t>
+  </si>
+  <si>
+    <t>The hotel is really nice is brand new like two months ago that they opened, they have the legacy shops around really nice they have many stores many options, restaurants, I really like the hotel you can take Uber but on the weekend is not very easy to take Uber at night if you want to go to Dallas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r523755494-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>523755494</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Most Amazing Hotel and Staff</t>
+  </si>
+  <si>
+    <t>The Renaissance hotel has been an amazing experience.  The accommodations are first class, and the entire hotel is super clean.  When you walk in the door you are greeted with smiles and people holding the door open when you come and go.  The rooms are super spacious with fantastic views.  The roof top pool is amazing, with a vegas feel without the rowdiness.  The entire staff makes you feel at home and constantly are asking what they can do for you.  The Bar has a great vibe and the food is outstanding.  If you really want an amazing meal try the bone in pork belly over the mac and cheese.  I have stayed at many hotels around the world and the service and atmosphere here is better than any five star hotel I have ever stayed at.  I think this is the greatest hotel in the entire state of TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>The Renaissance hotel has been an amazing experience.  The accommodations are first class, and the entire hotel is super clean.  When you walk in the door you are greeted with smiles and people holding the door open when you come and go.  The rooms are super spacious with fantastic views.  The roof top pool is amazing, with a vegas feel without the rowdiness.  The entire staff makes you feel at home and constantly are asking what they can do for you.  The Bar has a great vibe and the food is outstanding.  If you really want an amazing meal try the bone in pork belly over the mac and cheese.  I have stayed at many hotels around the world and the service and atmosphere here is better than any five star hotel I have ever stayed at.  I think this is the greatest hotel in the entire state of TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r519155613-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>519155613</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing hospitality experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this beautiful hotel 4 nights due to a business trip. When I arrived, I was treated like If i was the only one guest. Everyone from the door man to the receptionist and every person that works at the restaurant/Bar/pool area was extremely friendly and polite. My review is base on my experience but everything else in that hotel it's just beautiful, they made me feel like at home.... Loved the cowboys(girls) hat </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r517810303-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>517810303</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>WOW, Just WOW!!!</t>
+  </si>
+  <si>
+    <t>Renaissance set a new gold standard with this one! What a fabulous hotel!It's an Asian fused Western theme and it works very, very well! It's apparent that much thought and effort was put into each area of the hotel from the decor to the furniture to the room setup. Lots of great nooks to be able to have a seat and be by yourself or visit with others. My husbands company sponsored a large event here and the ballroom area was fantastic! Instead of seating at round tables, the seating was rectangular tables of 10, which gave the feel of a home dinner party. Very clever! Service during the event was spot on and the food was fabulous!Our room for the night was wonderful! Very well appointed and very comfortable. Bed was comfy and we slept very good. The shower area was really cool w/ a shower/bath combination.I really love how the East meets West theme is carried throughout this hotel ~ very impressive! This one certainly bumps the standard for other hotels to a whole new level! If you're looking for a hotel in the Dallas area, this one certainly will not disappoint!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Renaissance set a new gold standard with this one! What a fabulous hotel!It's an Asian fused Western theme and it works very, very well! It's apparent that much thought and effort was put into each area of the hotel from the decor to the furniture to the room setup. Lots of great nooks to be able to have a seat and be by yourself or visit with others. My husbands company sponsored a large event here and the ballroom area was fantastic! Instead of seating at round tables, the seating was rectangular tables of 10, which gave the feel of a home dinner party. Very clever! Service during the event was spot on and the food was fabulous!Our room for the night was wonderful! Very well appointed and very comfortable. Bed was comfy and we slept very good. The shower area was really cool w/ a shower/bath combination.I really love how the East meets West theme is carried throughout this hotel ~ very impressive! This one certainly bumps the standard for other hotels to a whole new level! If you're looking for a hotel in the Dallas area, this one certainly will not disappoint!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r508712614-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>508712614</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soccer National championship </t>
+  </si>
+  <si>
+    <t>Whether in Plano/ Dallas area for fun, family or business, this hotel is the perfect option!Beautiful hotel, great location, impeccable service and well appointed rooms!Very impressed!The pool and lounge area is perfectly done, daytime swimming or evening cocktails!!Very close to wonderful restaurants and shopping too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r506486770-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>506486770</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Nice for Week !...</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed the hotel for our anniversary. The room we had was very nice and the TVs are equipped with Netflix and Hulu which made staying in the room. The room service food needs to be improved but I understand the hotel is in its infancy so improvements will be made and I can't wait to come back.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r503280430-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>503280430</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Up and coming star for the Brand</t>
+  </si>
+  <si>
+    <t>I just completed a night stay at this new Renaissance and was very happy.  The property is very well laid out and appointed and the staff was both polite and helpful.  I'd like to call out the Concierge lounge attendant Oneida for being especially helpful.  The pool setup is lively and relaxing.  The workout room is very well equipped.  The room was functional although the "Asian Bath" arrangement with tub and shower integrated in the same enclosure was a bit odd.  There were a couple of glitches to be sure but with the property being only a week old it was expected. I hope to find an opportunity to try it again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just completed a night stay at this new Renaissance and was very happy.  The property is very well laid out and appointed and the staff was both polite and helpful.  I'd like to call out the Concierge lounge attendant Oneida for being especially helpful.  The pool setup is lively and relaxing.  The workout room is very well equipped.  The room was functional although the "Asian Bath" arrangement with tub and shower integrated in the same enclosure was a bit odd.  There were a couple of glitches to be sure but with the property being only a week old it was expected. I hope to find an opportunity to try it again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r502488631-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>502488631</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Marriott scored another big hit</t>
+  </si>
+  <si>
+    <t>The new Renaissance Legacy West run by the same family that owns Sam Moon opened less than a week ago and is a shining star in the new Legacy West development in Plano, TXWe first saw the hotel lobby during the grand opening of the Legacy West complex and were intrigued enough to take advantage of a mini staycation over the weekend. Everything from the lobby to the rooms resonate a East meets West vibe - no make that a Texas meets East. The staff is ultra accommodating, the rooms beautifully appointed and the third floor outdoor pool is inviting.The lobby bar is chock full of whiskies and other wonderful libations. Appetizers are an assortment of bao buns in keeping with the Asian motif. Whether in town for business or pleasure or just looking to get away from home for a few days I'd highly recommend the Renaissance Legacy West. I know we'll be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>The new Renaissance Legacy West run by the same family that owns Sam Moon opened less than a week ago and is a shining star in the new Legacy West development in Plano, TXWe first saw the hotel lobby during the grand opening of the Legacy West complex and were intrigued enough to take advantage of a mini staycation over the weekend. Everything from the lobby to the rooms resonate a East meets West vibe - no make that a Texas meets East. The staff is ultra accommodating, the rooms beautifully appointed and the third floor outdoor pool is inviting.The lobby bar is chock full of whiskies and other wonderful libations. Appetizers are an assortment of bao buns in keeping with the Asian motif. Whether in town for business or pleasure or just looking to get away from home for a few days I'd highly recommend the Renaissance Legacy West. I know we'll be back. More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1345,2160 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>262</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>CarnivoreGunter_TX</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>This was farmland 20 years ago and know it’s almost an urban jungle. We come down for weekend staycations.  Cheap rooms and fun place. Great fire pit in the winter and great roof top pool in the summer. More</t>
+  </si>
+  <si>
+    <t>tokyojohn1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r584377424-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -220,6 +226,9 @@
 We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat...I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat Texas suburbs were nice. The Club lounge served a decent breakfast with plenty of fruits, cereals, pastries, as well as hot eggs. The nearby Legacy West area had plenty of restaurants and shopping to take in all the Dallas suburbs has to offer (the people watching is excellent). Overall a great stay, and this will be my new go to hotel when visiting family in the Frisco area.More</t>
   </si>
   <si>
+    <t>Tara H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r583335507-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -241,6 +250,9 @@
     <t>When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance...When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance and a few retail shops too.  I was able to pick up a few things  I forgot to bring at Sephora. Perfecton!  I look forward to another visit when I am in town for work next. Go forth and stay!More</t>
   </si>
   <si>
+    <t>Unjournaled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r576467718-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>Located at the tip of Legacy West, the Renaissance is your hub to walking the various shops, bars and restaurants in the area. Need to skip elsewhere, the Dallas Parkway and Sam Rayburn Tollway are right there. The staff is warm and welcoming, across the property with rooms that make you feel like home may be a forgotten memory. Mood lights in the bathroom, set the tone of your shower experience, and don't miss the pool deck on a clear day!More</t>
   </si>
   <si>
+    <t>Cheryl F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575943304-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
     <t>This hotel really sucks.  The day I was supposed to check in I arrived at noon and was very unapologetically informed that they were "over sold" and I would have to stay in their sister property - the Marriott near the Shops at Legacy.  There was no reason given, I was part of a group and no other members of my group were singled out and sent to the Marriott.  I would never recommend this hotel.  I am only giving it one star because of the friendliness of the catering staff.  The manager was absolutely horrible.More</t>
   </si>
   <si>
+    <t>txbride</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575263628-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -316,6 +334,9 @@
     <t>2 night stay for a business meetingVery new hotel, great location for visiting Plano Legacy area, with tons of high end dining and retail, close to businesses in Legacy areaJust off the North Dallas Tollway, easy in and outParking easy and convenientRooms new and clean, modern designStaff was pleasant, friendly, and helpfulMore</t>
   </si>
   <si>
+    <t>GolingGal949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r569186677-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
     <t>Unfortunately I was only at the property for 13 hours but loved it. Rooms are nice, clean, new! Aveda products in the bath and plush towels.  Comfy bed and bedding, good TV, real creamer for coffee (I hate the powder crap) and location next to the mall with everything you want/need. Will make this my go to when in Plano.</t>
   </si>
   <si>
+    <t>Bookroxy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r568443928-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -349,6 +373,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>PacoToonces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r567970408-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -373,6 +400,9 @@
     <t>While clearly a conference hotel, which is why I was there, it was very nice, clean, great staff, and good layout. Rooms were reasonable size and lots of good restaurants in the adjacent outdoor mall.More</t>
   </si>
   <si>
+    <t>Lisa O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r565681937-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
     <t xml:space="preserve">Beautiful modern hotel with unique Asian accents. Hotel staff is attentive and gracious.  Rooms are clean, with comfortable furnishings, and the higher floors have nice views. The location is ideal and the numerous shops and restaurants within walking distance are top notch.  We opted for the smaller room with the Asian style bathroom because we wanted a soaking tub with separate shower and loved the set up.  We enjoyed hanging out at the bar, the outdoor fire pit, and the pool.  We highly recommend walking to the Legacy Food Hall too.  We will be back!  Thanks for a great weekend! </t>
   </si>
   <si>
+    <t>pinkgirl7938</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564366248-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -406,6 +439,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Dr Dee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564260883-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>A brand new exotic hotel of Marriott in the upscale area of Legacy, Plano (Dallas), TX.The "East meets West"concept is original and nice.Here, you find western style with a flare of Asia. Excellent customer service throughout along with great rooms, amenities and conveniences. Must try!More</t>
   </si>
   <si>
+    <t>Gerardoverap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r561581409-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -442,6 +481,9 @@
     <t xml:space="preserve">The renaissance at Plano is a great hotel. The hotel is new and functional. The room is comfirtable and spacious. It has all the required ammenities like usb chargers and power outlets. The TV has internet options like Hulu or Netflix! Nice! The bathroom has different color lights... cool... The decor is modern and cool. The hotel has a nice outdoor pool &amp; Jacuzzi... also a nice gym!!! The hotel also has a very nice Bar with great ambiance (I stayed for a weekend) The service was excellent!!! Great choice... highly recommended!!!  </t>
   </si>
   <si>
+    <t>Grant C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r559513659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -457,6 +499,9 @@
     <t xml:space="preserve">I have been to quite a few Marriott and Renaissance hotels over the past few years and this is the one by which all others should be judged. The rooms are spacious and well decorated. I was suspicious about the shower mood lighting but it was actually quite effective in reducing stress and being bright and uplifting in the morning. The rooftop pool is beautiful and the gym has everything you could need. </t>
   </si>
   <si>
+    <t>Riva N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r557567757-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -484,6 +529,9 @@
     <t>My daughter found out she would be at the Renaissance Dallas at Plano Legacy West Hotel for business on her birthday. I wasn't sure what to do and found myself perusing local florists but then realized how silly that would be since she can't bring flowers on the plane. So I called the hotel and spoke w. Ben Shoemaker, Rooms Controller who put my mind at ease. He sent me a hotel amenity form which I filled out and immediately he fulfilled my request. I have no immediate plans to go to Texas, however now I want to go, just to visit the hotel and thank Ben personally. Thank you Ben, for all you do!More</t>
   </si>
   <si>
+    <t>SSHotelman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r548067182-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -505,6 +553,9 @@
     <t>I attended my wife’s Holiday party on December 16, the event was for 1000ppl. The group had bought out almost all the guestrooms and the meeting space. Upon arriving valet was all over it, very friendly and willing to assist. The check-in process was fast and friendly. We grabbed a quick drink at the lobby bar and dashes to our room. Beautiful guestroom, liked the mood lighting in the bathroom. The event was great (I’m in the business and was looking for things) service was excellent, food was tasty only drawback was the bar lines, but it was 1000ppl on a host bar. Love the décor of the hotel- Very cool place and I will be back.More</t>
   </si>
   <si>
+    <t>nowpacking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547971440-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -520,6 +571,9 @@
     <t xml:space="preserve">Beautiful new hotel located just steps from the shops and restaurants at Legacy West.  Huge lobby with lots of seating areas.  Very professional and friendly staff from the moment we drove up to check in with lots of great suggestions on what to do and where to eat.  Room was very nice and super clean.  Very comfy bed and nice bathroom.  Bathroom could use additional lighting for makeup.  So much shopping nearby you could stay for days!  </t>
   </si>
   <si>
+    <t>FairlyWellTraveled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547655505-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -538,6 +592,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Gifford P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r543171939-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -553,6 +610,9 @@
     <t xml:space="preserve">All of the staff is phenomenal and the facility is great and nicely kept. We had a great breakfast. We will definitely will stay here again on our next visit. Great choice if you're in the Plano area. </t>
   </si>
   <si>
+    <t>Chicas1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542410941-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -568,6 +628,9 @@
     <t>New and fresh hotel with great service just beside the shops at West Legacy. The rooms were new, modern and comfortable, with nice decor. Loved the theme with a mix of asian elements and Texas style. Had a nice room on the 10th floor with floor to ceiling windows. Great bathroom. Had breakfast one morning and it was very good. Nice bar and reception. Attentive and friendly staff all over. Definitely a place we will come back to.</t>
   </si>
   <si>
+    <t>TallTexan75229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542267318-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -586,6 +649,9 @@
     <t>I stayed here on business in November 2017.  I had a king room confirmed, but when I checked in at 3pm, they had no king rooms.  I explained it was confirmed and all they could say is they had none.  Needless to say I was not at all happy from the start, but that was just check-in.The hotel is new so everything is nice.  The staff is very nice, as are the facilities.  The hotel is a modern style hotel but is clearly sucking up to the Toyota offices nearby with a bizarre theme of The Orient meets Cowboy.  The room had 2 beds (see above... grr) with a pillow on one bed that said "Samurai" and a pillow on the other that said "cowboy".  There was a Texan quote scrawled vertically from the base of a mirror onto the ceiling from a Texan.  Having writing is not cute but especially the way they did it.  The hotel has artwork that is either cowboy or Japanese.  It makes no sense.  Those quirks aside, the important thing is that yes, this is a nice hotel where you will get a nice room and nice service.  The food was alright.  Not bad, not great.  If I were staying in Plano, I'd come back here.More</t>
   </si>
   <si>
+    <t>dfisch891</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r538745247-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -607,6 +673,9 @@
     <t>I stayed at this property for a few days and, overall, it was good. Some more details:Pros: New, good location (lots of dining options in the area, easy access to the tollways, about 30 min to the airport and downtown Dallas), good valet service, fast Internet and big rooms (I was upgraded).Cons: Expensive valet service, awkward toilet without a lot of space (at lease in my room), dirty rooms for a new hotels (dust, food on the floors from the last guest, etc.).In the end, I would stay at this property again; however, I will be mindful of other reviews regarding how clean it is. For such a new hotel, I would expect it to be in better shape...I am guessing that it has to do with growing pains or a poor management company.More</t>
   </si>
   <si>
+    <t>April G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r537272367-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
     <t xml:space="preserve">We stayed at this hotel last weekend and it was absolutely beautiful! The location was perfect bar and restaurant a few step for the hotel! The hotel itself had a nice bar with strong drinkswe didn't have time to check out the hotel restaurant. The room were spacious, clean and very modern..FYI I love that the light in the shower change colors! The hotel itself had exciting, modern and beautifully decorated. It was too cold to go to the pool but it was nice. Overall it was a great stay. Things you should know parking is $17 a night and the drinks are great but pricey! </t>
   </si>
   <si>
+    <t>Attymikeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r536645659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -637,6 +709,9 @@
     <t>So this entire Legacy West deal is new and so is the hotel. Great location to travel all over metroplex and lots nearby. Walking to great food and shops and short courtesy suv drive to lots more. The hotel service is great. Awesome whiskey bar. Very cool decor that they refer to as Samurai Cowboy. Enuff said about that. I include pics. Good wifi, hot showers, and great king beds. Parking garage attached- self or valet. Big screens in the bar. Good but not great breakfast. Lounge is a must do. Very nice work out space and pool deck. Will definitely stay there again.</t>
   </si>
   <si>
+    <t>Flourpowers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r534958663-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -652,6 +727,9 @@
     <t>We held our conference at this new hotel and everything was awesome!  The service was great and the hotel is beautiful. The room service person told me all about the amazing art throughout the hotel so they must train their personnel very well.  It's obvious that it is very well run.  Bravo!</t>
   </si>
   <si>
+    <t>N P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r531049096-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -673,6 +751,9 @@
     <t>Stayed here while attending a conference. My room was next to the highway and starting about 5:30 the traffic noise was terrible and I couldn’t sleep. I suggest you request a room AWAY from the highway. The room was very nicely decorated and comfortable but didn’t have a bathtub which was different. I prefer baths to showers.We went to the hotel restaurant on our one hour break from the sessions and the 8 of us ordered either sandwiches or salads. It took 30 to 40 minutes to get our food ad they came out one at a time rather than all at once. Several of us had to take our lunch to go or we would be late to the next session. The restaurant manager didn’t apologize, instead she told us, this is not the kind of place you come for a quick lunch.  Really? You serve salads and sandwiches! Maybe it’s just growing pains for a new hotel, but I suggest you stay at the Hilton across the tollway until the Renaissance gets its act together.More</t>
   </si>
   <si>
+    <t>barbhenz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r530281094-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -691,6 +772,9 @@
     <t>We had the pleasure of staying here for a family wedding, and it was the first wedding the hotel had hosted.  The entire stay was really lovely.  Check in was a breeze and everyone at the front desk was friendly and engaging.  Everything is truly top-notch.  I had called to make reservations long before they were even open and had the pleasure of speaking to the manager.  His way of following up with us after check in was really exceptional!!Thank you!!!  The hotel has some pretty amazing artwork throughout.  Make sure to take a few minutes to walk around and take it all in.  The pool area is fabulous and the spa just the right temp.  The food service around the pool was a little slow, but nothing bad.  The only thing I might comment on is there is a fragrance when you first enter the hotel lobby that at first is a nice touch, but it is so strong it gets a bit overwhelming.  Excellent location withso many shops and restaurants nearby.  We will definetly stay again.More</t>
   </si>
   <si>
+    <t>BrownsteadRealEstate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r526558263-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -706,6 +790,9 @@
     <t>Another enjoyable stay at this hotel, it is new, clean, hip and centrally located. The staff is very friendly, the food great and the rooms are beautifully loaded with luxurious features! The only suggestion I have the bath soap, really, Days Inn style soap???</t>
   </si>
   <si>
+    <t>Fernando L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r525201146-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -721,6 +808,9 @@
     <t>The hotel is really nice is brand new like two months ago that they opened, they have the legacy shops around really nice they have many stores many options, restaurants, I really like the hotel you can take Uber but on the weekend is not very easy to take Uber at night if you want to go to Dallas.</t>
   </si>
   <si>
+    <t>216bryan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r523755494-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -742,6 +832,9 @@
     <t>The Renaissance hotel has been an amazing experience.  The accommodations are first class, and the entire hotel is super clean.  When you walk in the door you are greeted with smiles and people holding the door open when you come and go.  The rooms are super spacious with fantastic views.  The roof top pool is amazing, with a vegas feel without the rowdiness.  The entire staff makes you feel at home and constantly are asking what they can do for you.  The Bar has a great vibe and the food is outstanding.  If you really want an amazing meal try the bone in pork belly over the mac and cheese.  I have stayed at many hotels around the world and the service and atmosphere here is better than any five star hotel I have ever stayed at.  I think this is the greatest hotel in the entire state of TX.More</t>
   </si>
   <si>
+    <t>Vgarc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r519155613-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -757,6 +850,9 @@
     <t xml:space="preserve">I stayed at this beautiful hotel 4 nights due to a business trip. When I arrived, I was treated like If i was the only one guest. Everyone from the door man to the receptionist and every person that works at the restaurant/Bar/pool area was extremely friendly and polite. My review is base on my experience but everything else in that hotel it's just beautiful, they made me feel like at home.... Loved the cowboys(girls) hat </t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r517810303-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -775,6 +871,9 @@
     <t>Renaissance set a new gold standard with this one! What a fabulous hotel!It's an Asian fused Western theme and it works very, very well! It's apparent that much thought and effort was put into each area of the hotel from the decor to the furniture to the room setup. Lots of great nooks to be able to have a seat and be by yourself or visit with others. My husbands company sponsored a large event here and the ballroom area was fantastic! Instead of seating at round tables, the seating was rectangular tables of 10, which gave the feel of a home dinner party. Very clever! Service during the event was spot on and the food was fabulous!Our room for the night was wonderful! Very well appointed and very comfortable. Bed was comfy and we slept very good. The shower area was really cool w/ a shower/bath combination.I really love how the East meets West theme is carried throughout this hotel ~ very impressive! This one certainly bumps the standard for other hotels to a whole new level! If you're looking for a hotel in the Dallas area, this one certainly will not disappoint!!More</t>
   </si>
   <si>
+    <t>JKO3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r508712614-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -790,6 +889,9 @@
     <t>Whether in Plano/ Dallas area for fun, family or business, this hotel is the perfect option!Beautiful hotel, great location, impeccable service and well appointed rooms!Very impressed!The pool and lounge area is perfectly done, daytime swimming or evening cocktails!!Very close to wonderful restaurants and shopping too.</t>
   </si>
   <si>
+    <t>Bigpayne31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r506486770-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -811,6 +913,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r503280430-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -827,6 +932,9 @@
   </si>
   <si>
     <t>I just completed a night stay at this new Renaissance and was very happy.  The property is very well laid out and appointed and the staff was both polite and helpful.  I'd like to call out the Concierge lounge attendant Oneida for being especially helpful.  The pool setup is lively and relaxing.  The workout room is very well equipped.  The room was functional although the "Asian Bath" arrangement with tub and shower integrated in the same enclosure was a bit odd.  There were a couple of glitches to be sure but with the property being only a week old it was expected. I hope to find an opportunity to try it again.More</t>
+  </si>
+  <si>
+    <t>David Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r502488631-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -1349,43 +1457,47 @@
       <c r="A2" t="n">
         <v>66334</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>93262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1397,56 +1509,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66334</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175061</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1464,56 +1580,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66334</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1525,56 +1645,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66334</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175062</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1592,56 +1716,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66334</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>29477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1657,56 +1785,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66334</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>82529</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1724,47 +1856,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66334</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175063</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -1783,50 +1919,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66334</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175064</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1840,50 +1980,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66334</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175065</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1895,56 +2039,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66334</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1958,50 +2106,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66334</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175066</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2015,50 +2167,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66334</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175067</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2070,56 +2226,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66334</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175068</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>138</v>
       </c>
-      <c r="L14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>127</v>
-      </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2133,50 +2293,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66334</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>80902</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2190,50 +2354,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66334</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175069</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2251,56 +2419,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66334</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>69592</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2318,41 +2490,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66334</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>139198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2371,50 +2547,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66334</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175070</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2428,50 +2608,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66334</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175071</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2485,50 +2669,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66334</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175072</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2548,50 +2736,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66334</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175073</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2611,50 +2803,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66334</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175074</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2674,50 +2870,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66334</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>26614</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2731,50 +2931,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66334</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175075</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2788,50 +2992,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66334</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175076</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2845,50 +3053,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66334</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>41297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2902,50 +3114,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66334</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175077</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2965,50 +3181,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66334</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>139894</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3022,50 +3242,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66334</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175078</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3079,50 +3303,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66334</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175079</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3140,50 +3368,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66334</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175080</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3203,50 +3435,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66334</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>450</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3260,41 +3496,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66334</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175081</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -3313,50 +3553,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66334</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175082</v>
+      </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="J35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="O35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3376,50 +3620,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66334</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3439,50 +3687,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66334</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>21832</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3496,7 +3748,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_644.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,408 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>CarnivoreGunter_TX</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r608793405-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>12263357</t>
+  </si>
+  <si>
+    <t>608793405</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service, attention</t>
+  </si>
+  <si>
+    <t>From the valet parking to the guest reception, to the room service, everybody was fantastic!!!We had a water leak coming from the room above us and the service was quick to address it and the follow up was fantastic!Angela Yam (the supervisor) went out of her way offering us the opportunity to move to another room and she continued to follow up on maintaining our comfort.Apparently, the guests above our room, left some water faucet open and hence, the water drip (from their bathroom). This is the kind of service that you would expect and she delivered it sincerely. I think, however, that the overnight valet parking is expensive ($24.00 a night). We only used our vehicle a couple of times and we needed to park close. Paid Wi-FiOutdoor poolAir-conditionedLaundry serviceRoom serviceKid-friendlyFree breakfastPet-friendlyRestaurantAirport shuttleHot tubFitness centerBarSmoke-freeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>From the valet parking to the guest reception, to the room service, everybody was fantastic!!!We had a water leak coming from the room above us and the service was quick to address it and the follow up was fantastic!Angela Yam (the supervisor) went out of her way offering us the opportunity to move to another room and she continued to follow up on maintaining our comfort.Apparently, the guests above our room, left some water faucet open and hence, the water drip (from their bathroom). This is the kind of service that you would expect and she delivered it sincerely. I think, however, that the overnight valet parking is expensive ($24.00 a night). We only used our vehicle a couple of times and we needed to park close. Paid Wi-FiOutdoor poolAir-conditionedLaundry serviceRoom serviceKid-friendlyFree breakfastPet-friendlyRestaurantAirport shuttleHot tubFitness centerBarSmoke-freeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r607964495-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>607964495</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Amazing customer servie</t>
+  </si>
+  <si>
+    <t>We spent our past 2 anniversaries here and are so glad we did. Last year they had just opened and the manager made a big show of it being our anniversary and gave us a card signed by all the employees and gift box of macaroons. I mentioned how well we were treated on our last anniversary when checking in...and how nice and thoughtful it was and the person (Tyler) checking us in upgraded our room to a very nice corner king.  He also sent a card and champagne and macaroons to the room later that night.  All of the employees here smile and greet you warmly.  They all seem happy to be working here and genuinely enjoy taking care of the guests. The hotel has very upscale and cool decor. The waitstaff in their restaurant is amazing too.  Our waiter (Fred) was very on top of his game and fun to talk with.:) Thank you Renaissance Legacy for making our memories even better!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We spent our past 2 anniversaries here and are so glad we did. Last year they had just opened and the manager made a big show of it being our anniversary and gave us a card signed by all the employees and gift box of macaroons. I mentioned how well we were treated on our last anniversary when checking in...and how nice and thoughtful it was and the person (Tyler) checking us in upgraded our room to a very nice corner king.  He also sent a card and champagne and macaroons to the room later that night.  All of the employees here smile and greet you warmly.  They all seem happy to be working here and genuinely enjoy taking care of the guests. The hotel has very upscale and cool decor. The waitstaff in their restaurant is amazing too.  Our waiter (Fred) was very on top of his game and fun to talk with.:) Thank you Renaissance Legacy for making our memories even better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r601128056-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>601128056</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Service at its Best</t>
+  </si>
+  <si>
+    <t>I travel a good amount, and so I understand that sometimes things go seamlessly and sometimes they don't, regardless of the property or chain.
+What really differentiates the great individual properties is how they manage the little hiccups that will inevitably happen from time to time.
+We stayed at the Renaissance Legacy West to celebrate our wedding anniversary.  This was our first trip away since having a baby 3 months ago, and my wife and I badly needed some R&amp;R and time alone.  On arrival, we encountered a few hiccups that could easily have gone downhill quickly.  What really impressed me is how quickly and flawlessly the staff worked to make sure our every need was taken care of, and really turned what could have been a negative into a positive.  With another staff at another property our trip could have gotten off to a very rocky and stressful start, but instead they found a way to turn the situation around quickly and make sure we were happy.
+It did not just stop with resolving this situation, though, as we felt throughout the trip that the staff of the hotel was focused on us and making sure we were having a great stay.  It's a fine line that differentiates between experiences that create happy customers and experiences that create loyal customers, and the staff here was able to take an experience that could have created unhappy customers and use it...I travel a good amount, and so I understand that sometimes things go seamlessly and sometimes they don't, regardless of the property or chain.What really differentiates the great individual properties is how they manage the little hiccups that will inevitably happen from time to time.We stayed at the Renaissance Legacy West to celebrate our wedding anniversary.  This was our first trip away since having a baby 3 months ago, and my wife and I badly needed some R&amp;R and time alone.  On arrival, we encountered a few hiccups that could easily have gone downhill quickly.  What really impressed me is how quickly and flawlessly the staff worked to make sure our every need was taken care of, and really turned what could have been a negative into a positive.  With another staff at another property our trip could have gotten off to a very rocky and stressful start, but instead they found a way to turn the situation around quickly and make sure we were happy.It did not just stop with resolving this situation, though, as we felt throughout the trip that the staff of the hotel was focused on us and making sure we were having a great stay.  It's a fine line that differentiates between experiences that create happy customers and experiences that create loyal customers, and the staff here was able to take an experience that could have created unhappy customers and use it to create loyal ones.You can look at the pictures and read other reviews and know that this is a fantastic property (the rooms, the bar, the pool, and the surrounding area all are reason enough to stay), but the staff and attention to detail in their service is what set apart the experience for us.  We will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I travel a good amount, and so I understand that sometimes things go seamlessly and sometimes they don't, regardless of the property or chain.
+What really differentiates the great individual properties is how they manage the little hiccups that will inevitably happen from time to time.
+We stayed at the Renaissance Legacy West to celebrate our wedding anniversary.  This was our first trip away since having a baby 3 months ago, and my wife and I badly needed some R&amp;R and time alone.  On arrival, we encountered a few hiccups that could easily have gone downhill quickly.  What really impressed me is how quickly and flawlessly the staff worked to make sure our every need was taken care of, and really turned what could have been a negative into a positive.  With another staff at another property our trip could have gotten off to a very rocky and stressful start, but instead they found a way to turn the situation around quickly and make sure we were happy.
+It did not just stop with resolving this situation, though, as we felt throughout the trip that the staff of the hotel was focused on us and making sure we were having a great stay.  It's a fine line that differentiates between experiences that create happy customers and experiences that create loyal customers, and the staff here was able to take an experience that could have created unhappy customers and use it...I travel a good amount, and so I understand that sometimes things go seamlessly and sometimes they don't, regardless of the property or chain.What really differentiates the great individual properties is how they manage the little hiccups that will inevitably happen from time to time.We stayed at the Renaissance Legacy West to celebrate our wedding anniversary.  This was our first trip away since having a baby 3 months ago, and my wife and I badly needed some R&amp;R and time alone.  On arrival, we encountered a few hiccups that could easily have gone downhill quickly.  What really impressed me is how quickly and flawlessly the staff worked to make sure our every need was taken care of, and really turned what could have been a negative into a positive.  With another staff at another property our trip could have gotten off to a very rocky and stressful start, but instead they found a way to turn the situation around quickly and make sure we were happy.It did not just stop with resolving this situation, though, as we felt throughout the trip that the staff of the hotel was focused on us and making sure we were having a great stay.  It's a fine line that differentiates between experiences that create happy customers and experiences that create loyal customers, and the staff here was able to take an experience that could have created unhappy customers and use it to create loyal ones.You can look at the pictures and read other reviews and know that this is a fantastic property (the rooms, the bar, the pool, and the surrounding area all are reason enough to stay), but the staff and attention to detail in their service is what set apart the experience for us.  We will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r599228662-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>599228662</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Top-notch!!</t>
+  </si>
+  <si>
+    <t>I have hosted 3 large meetings at this hotel and have never been disappointed!  The area provides so much - shopping, restaurants, live music, etc.  But the hotel itself is really wonderful.  The staff is outstanding!  The rooms are beautiful! And the food - wow!  Our meeting participants raved about every meal!  We plan to continue to use this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have hosted 3 large meetings at this hotel and have never been disappointed!  The area provides so much - shopping, restaurants, live music, etc.  But the hotel itself is really wonderful.  The staff is outstanding!  The rooms are beautiful! And the food - wow!  Our meeting participants raved about every meal!  We plan to continue to use this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r599086763-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>599086763</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Dreadful Customer Sevice</t>
+  </si>
+  <si>
+    <t>From the moment I checked in I realised that this hotel falls well short of the customer service standards that one expects from a Marriot Group property. It’s clear that staff training has been wholly inadequate. Given the repeated service failures I would not recommend this property to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>From the moment I checked in I realised that this hotel falls well short of the customer service standards that one expects from a Marriot Group property. It’s clear that staff training has been wholly inadequate. Given the repeated service failures I would not recommend this property to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r598953620-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>598953620</t>
+  </si>
+  <si>
+    <t>Great getaway!</t>
+  </si>
+  <si>
+    <t>Stayed three nights in this beautiful hotel, wish it could've stayed longer! There are so many restaurants and shops within walking distance and the hotel is wonderfully designed. The pool is a must see and upgrading to add concierge access was well worth it. Everyone was friendly and helpful. We were checked in by Angela who was so nice and accommodating. The next day we met Paula in the lounge and Dejon at the desk made some great food recommendations. Oma was delicious for breakfast,! Perla, Junior, Fred and Pita remembered us and it was a great experience overall, we felt like family!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed three nights in this beautiful hotel, wish it could've stayed longer! There are so many restaurants and shops within walking distance and the hotel is wonderfully designed. The pool is a must see and upgrading to add concierge access was well worth it. Everyone was friendly and helpful. We were checked in by Angela who was so nice and accommodating. The next day we met Paula in the lounge and Dejon at the desk made some great food recommendations. Oma was delicious for breakfast,! Perla, Junior, Fred and Pita remembered us and it was a great experience overall, we felt like family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r598677559-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>598677559</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Upscale and excellent service</t>
+  </si>
+  <si>
+    <t>I was here for business meetings. The place is simply beautiful, every little detail has been executed beautifully with great thought. I would have stayed here for my trip but the hotel was full. Will definitely look to stay here on my next trip to the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded July 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2018</t>
+  </si>
+  <si>
+    <t>I was here for business meetings. The place is simply beautiful, every little detail has been executed beautifully with great thought. I would have stayed here for my trip but the hotel was full. Will definitely look to stay here on my next trip to the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r598549507-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>598549507</t>
+  </si>
+  <si>
+    <t>Comfortable and Upscale</t>
+  </si>
+  <si>
+    <t>I enjoy staying here for the gym, the comfort level, and quality of the hotel.  It is a bit expensive for the area.   The shuttle service is very good and the staff are very helpful in finding solutions to normal travel issuesMoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>I enjoy staying here for the gym, the comfort level, and quality of the hotel.  It is a bit expensive for the area.   The shuttle service is very good and the staff are very helpful in finding solutions to normal travel issuesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r596539214-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>596539214</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>beautiful hotel, feels like a boutique hotel</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel.  Amazing location in Legacy West - we walked to restaurants and Starbucks.  Fitness center and pool are great, much better than most hotels.  The rooms are comforable, spacious, clean, and beautiful.  Concierge room was great for breakfast, and the service overall was top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel.  Amazing location in Legacy West - we walked to restaurants and Starbucks.  Fitness center and pool are great, much better than most hotels.  The rooms are comforable, spacious, clean, and beautiful.  Concierge room was great for breakfast, and the service overall was top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r594456541-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>594456541</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Above Expectations</t>
+  </si>
+  <si>
+    <t>Stayed here with my husband and we were very impressed with the customer service and amazing rooms. We were on the 15th floor in a corner king and the views were fantastic. The location was within walking distance to a ton of restaurants, bars and shopping, but their shuttle service will also take you to wherever you want to go in a reasonable distance. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here with my husband and we were very impressed with the customer service and amazing rooms. We were on the 15th floor in a corner king and the views were fantastic. The location was within walking distance to a ton of restaurants, bars and shopping, but their shuttle service will also take you to wherever you want to go in a reasonable distance. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r592879828-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>592879828</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>This Renaissance puts all the others to shame!</t>
+  </si>
+  <si>
+    <t>This was one of our finest Marriott stays ever.  After paying off our youngest's final tuition, it was time for a getaway for ourselves and oh did the Renaissance ever so deliver!  The property is simply gorgeous.  We were upgraded to an upper southeast corner suite with an amazing view across Legacy in Plano.  The staff was beyond exceptional.  The breakfast buffet was one of the finest ever.  The dining, shops, and entertainment nearby were perfect.  We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2018</t>
+  </si>
+  <si>
+    <t>This was one of our finest Marriott stays ever.  After paying off our youngest's final tuition, it was time for a getaway for ourselves and oh did the Renaissance ever so deliver!  The property is simply gorgeous.  We were upgraded to an upper southeast corner suite with an amazing view across Legacy in Plano.  The staff was beyond exceptional.  The breakfast buffet was one of the finest ever.  The dining, shops, and entertainment nearby were perfect.  We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r591984146-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>591984146</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>The Renaissance Legacy West is very beautiful; decor is "Cowboy/Shanghi", very unusual and different. Personnel very helpful and nice! Pool is on 3rd floor, very pretty and relaxing at night. Lobby is lovely.Room was nicely appointed with a comfy bed. Bathroon was great, did not have bathtub. One comment - the towels are terribly rough - very crunchy. Seems like a hotel of this lever should have some nice, plush towels for guests. Felt like a loofah when drying off!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2018</t>
+  </si>
+  <si>
+    <t>The Renaissance Legacy West is very beautiful; decor is "Cowboy/Shanghi", very unusual and different. Personnel very helpful and nice! Pool is on 3rd floor, very pretty and relaxing at night. Lobby is lovely.Room was nicely appointed with a comfy bed. Bathroon was great, did not have bathtub. One comment - the towels are terribly rough - very crunchy. Seems like a hotel of this lever should have some nice, plush towels for guests. Felt like a loofah when drying off!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r589612386-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>589612386</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Girls weekend 2018</t>
+  </si>
+  <si>
+    <t>Each year we pick a different city for a girls weekend and we picked Dallas/Plano for June. I thought that we would be stuck in the suburbs and be miserable and I couldn’t be more wrong. The hotel was new and beautiful. We had an amazing rate (the hotel tends to run towards business travel during the week) over the weekend. The pool was a perfect size and offered a great lance to relax. (Just wish the pool bar stayed open longer hours). The location was walking distance to all the restaurants. The staff was very friendly and helpful. We didn’t get a chance to eat on the hotel because we had so many options around the hotel. The shuttle was able to drop us off and pick us up from dinner. Our room didn’t have a bath tub but our other rooms did and it was very luxurious. Beds were very comfortable and I want to buy the pillows from the bedding! I would highly recommend the hotel for a fun weekend MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Each year we pick a different city for a girls weekend and we picked Dallas/Plano for June. I thought that we would be stuck in the suburbs and be miserable and I couldn’t be more wrong. The hotel was new and beautiful. We had an amazing rate (the hotel tends to run towards business travel during the week) over the weekend. The pool was a perfect size and offered a great lance to relax. (Just wish the pool bar stayed open longer hours). The location was walking distance to all the restaurants. The staff was very friendly and helpful. We didn’t get a chance to eat on the hotel because we had so many options around the hotel. The shuttle was able to drop us off and pick us up from dinner. Our room didn’t have a bath tub but our other rooms did and it was very luxurious. Beds were very comfortable and I want to buy the pillows from the bedding! I would highly recommend the hotel for a fun weekend More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r588091241-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>588091241</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>New and lovely</t>
+  </si>
+  <si>
+    <t>Staying for few days in Plano - Dallas on busibess. This was the perfect choice for me. The hotel is very new, location is ideal, just next to Shops at Legacy where you can find many good restaurants and shops. The room is very clean, bed very comfortable. I had breakfast at Oma, quite nice. The staff are welcoming and extremely friendly. If l return to Plano,I will not hesitate to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Staying for few days in Plano - Dallas on busibess. This was the perfect choice for me. The hotel is very new, location is ideal, just next to Shops at Legacy where you can find many good restaurants and shops. The room is very clean, bed very comfortable. I had breakfast at Oma, quite nice. The staff are welcoming and extremely friendly. If l return to Plano,I will not hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r587442977-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>587442977</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome </t>
+  </si>
+  <si>
+    <t>First class. Beautiful new hotel with modern and tastefully appointed rooms. Nice Aveda toiletries and a fridge in room under the counter. Meeting rooms are beautiful and the breakfast was good. Would highly recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>First class. Beautiful new hotel with modern and tastefully appointed rooms. Nice Aveda toiletries and a fridge in room under the counter. Meeting rooms are beautiful and the breakfast was good. Would highly recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r586585309-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>586585309</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>No Personality; Nothing to Eat after Midnight</t>
+  </si>
+  <si>
+    <t>I made the mistake of staying here thinking that I was staying at the other Marriott down the street. This place is very sterile in terms of personality. It is probably good for businessman and people who are coming for professional reasons. However my husband and I came here to celebrate our 23rd wedding anniversary. We were under the impression that there was a lot of shopping to do and a lot of dining with in walking distance. While that is true in some ways, what is not said is that you have to walk down a busy  State Highway service Road to get to many of those places. Moreover, I am sitting here at 3 o’clock in the morning starved because this expensive hotel does not have 24 hour room service and not even one vending machine! Again, there are no eating places open within walking distance. I have stayed at hotels that were less expensive than at least offered a sandwich in the middle of the night. We will not be coming back here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>I made the mistake of staying here thinking that I was staying at the other Marriott down the street. This place is very sterile in terms of personality. It is probably good for businessman and people who are coming for professional reasons. However my husband and I came here to celebrate our 23rd wedding anniversary. We were under the impression that there was a lot of shopping to do and a lot of dining with in walking distance. While that is true in some ways, what is not said is that you have to walk down a busy  State Highway service Road to get to many of those places. Moreover, I am sitting here at 3 o’clock in the morning starved because this expensive hotel does not have 24 hour room service and not even one vending machine! Again, there are no eating places open within walking distance. I have stayed at hotels that were less expensive than at least offered a sandwich in the middle of the night. We will not be coming back here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r584870364-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>12263357</t>
-  </si>
-  <si>
     <t>584870364</t>
   </si>
   <si>
@@ -174,22 +561,13 @@
     <t>This was farmland 20 years ago and know it’s almost an urban jungle. We come down for weekend staycations.  Cheap rooms and fun place. Great fire pit in the winter and great roof top pool in the summer. MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
   </si>
   <si>
     <t>This was farmland 20 years ago and know it’s almost an urban jungle. We come down for weekend staycations.  Cheap rooms and fun place. Great fire pit in the winter and great roof top pool in the summer. More</t>
-  </si>
-  <si>
-    <t>tokyojohn1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r584377424-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -212,13 +590,10 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
   </si>
   <si>
     <t>I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. 
@@ -226,9 +601,6 @@
 We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat...I stayed at the Renaissance over Memorial Day weekend to visit nearby family. I specifically chose the hotel so we all had a place to escape the heat and swim in the pool with a cool outdoor bar. It actually ended up being perfect with covered cabana areas and a full bar with food. We spent 2 days there enjoying the sun and (as expected slightly expensive) drinks from the bar. The only hiccup was easily and quickly fixed. Upon check-in at 4:00 I was informed the room wasn't ready. As a Marriott Platinum member I was surprised, but told they would buy me a drink at the (very cool) bar and they would call me when it was ready. 30 minutes later I received a call, and when I went back to the desk was once again met with apologies and another $25 food/beverage credit. I thought this was generous and gladly accepted. All of the front desk, bell, and restaurant staff were very kind and obviously took pride in their roles. The overall Asian/Southern aesthetic throughout the hotel was so much fun and definitely set it apart from the other bland chain suburb hotels nearby. We received an upgrade to the Asian style bath room. The room itself is small (it is a business hotel) but had some very cool, modern Japanese/Cowboy touches and was spotlessly clean. Overall we found it very comfortable and views of the flat Texas suburbs were nice. The Club lounge served a decent breakfast with plenty of fruits, cereals, pastries, as well as hot eggs. The nearby Legacy West area had plenty of restaurants and shopping to take in all the Dallas suburbs has to offer (the people watching is excellent). Overall a great stay, and this will be my new go to hotel when visiting family in the Frisco area.More</t>
   </si>
   <si>
-    <t>Tara H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r583335507-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -244,13 +616,67 @@
     <t>When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance...When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance and a few retail shops too.  I was able to pick up a few things  I forgot to bring at Sephora. Perfecton!  I look forward to another visit when I am in town for work next. Go forth and stay!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
   </si>
   <si>
     <t>When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance...When the only thing that you can offer in terms of improvement is placing more creamer in the coffee box, you know something must be good.  This hotel, is an absolute gem. The staff here have figured out very quickly the magic of the location and the people that visit.  I arrived late evening and stayed for 3 days during the week. I am told that the week is reasonably quiet however the weekends have a completely different vibe.  As such, please note this review does not address that. The hotel itself is gorgeous and the staff are very nice and accommodating-- from the front desk, to the bar, to the shuttle drivers that got me back and forth to work, all were very pleasant.  The rooms are well accommodated. I had a room with two queens and it was very spacious and nice. The rooms are tastefully decorated and include Aveda toiletries, coffee and tea to self serve (more cream please) until you can get a real cup and an in room robe is available.  My favorite parts included floor to ceiling windows, the cat statues in every room and a lovely quote from George Bush that lines the mirror and extends to the ceiling.  You will have to see for yourself. Wifi is extremely reliable. I absolutely love the location.  Walk out the door of the hotel and you have a ton of dining choices within walking distance and a few retail shops too.  I was able to pick up a few things  I forgot to bring at Sephora. Perfecton!  I look forward to another visit when I am in town for work next. Go forth and stay!More</t>
   </si>
   <si>
-    <t>Unjournaled</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r582485027-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>582485027</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and location</t>
+  </si>
+  <si>
+    <t>This hotel is new and the rooms are very well done. They are on the small side but clean and well designed with some fun local touches. I ordered room service and it was delivered quickly and the food was very good. Great location attached to outdoor shopping with plenty of restaurant choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is new and the rooms are very well done. They are on the small side but clean and well designed with some fun local touches. I ordered room service and it was delivered quickly and the food was very good. Great location attached to outdoor shopping with plenty of restaurant choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r577542388-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>577542388</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>The Best hotel and service from the Marriott group beside the Ritz Carlton</t>
+  </si>
+  <si>
+    <t>Newly build hotel , well train staffs!! what can I say ... for sure will rebook again in a month or 2 !! thanks you to love and care what you do!!Very accommodating! wish they off a better breakfast then a la carte... JMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Newly build hotel , well train staffs!! what can I say ... for sure will rebook again in a month or 2 !! thanks you to love and care what you do!!Very accommodating! wish they off a better breakfast then a la carte... JMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r576467718-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -268,9 +694,6 @@
     <t>Located at the tip of Legacy West, the Renaissance is your hub to walking the various shops, bars and restaurants in the area. Need to skip elsewhere, the Dallas Parkway and Sam Rayburn Tollway are right there. The staff is warm and welcoming, across the property with rooms that make you feel like home may be a forgotten memory. Mood lights in the bathroom, set the tone of your shower experience, and don't miss the pool deck on a clear day!MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>TeamMarriott, General Manager at Renaissance Dallas at Plano Legacy West Hotel, responded to this reviewResponded May 9, 2018</t>
   </si>
   <si>
@@ -280,9 +703,6 @@
     <t>Located at the tip of Legacy West, the Renaissance is your hub to walking the various shops, bars and restaurants in the area. Need to skip elsewhere, the Dallas Parkway and Sam Rayburn Tollway are right there. The staff is warm and welcoming, across the property with rooms that make you feel like home may be a forgotten memory. Mood lights in the bathroom, set the tone of your shower experience, and don't miss the pool deck on a clear day!More</t>
   </si>
   <si>
-    <t>Cheryl F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575943304-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -307,9 +727,6 @@
     <t>This hotel really sucks.  The day I was supposed to check in I arrived at noon and was very unapologetically informed that they were "over sold" and I would have to stay in their sister property - the Marriott near the Shops at Legacy.  There was no reason given, I was part of a group and no other members of my group were singled out and sent to the Marriott.  I would never recommend this hotel.  I am only giving it one star because of the friendliness of the catering staff.  The manager was absolutely horrible.More</t>
   </si>
   <si>
-    <t>txbride</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r575263628-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -334,7 +751,37 @@
     <t>2 night stay for a business meetingVery new hotel, great location for visiting Plano Legacy area, with tons of high end dining and retail, close to businesses in Legacy areaJust off the North Dallas Tollway, easy in and outParking easy and convenientRooms new and clean, modern designStaff was pleasant, friendly, and helpfulMore</t>
   </si>
   <si>
-    <t>GolingGal949</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r571887710-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>571887710</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Very good hotel close to shopping, restaurants, and fun in Plano</t>
+  </si>
+  <si>
+    <t>We traveled to Plano, Texas for the weekend to enjoy all that Dallas and its suburbs have to offer. My sister and I had our three teenage/ preteen boys with us. So, we were in the market for everything boys! This hotel provided a great location for visiting the National Video Game Museum (yes there is such a thing), IFly indoor skydiving,  and the Dallas Cowboys training complex. There are plenty of wonderful restaurants within walking distance at Legacy Place. The rooftop pool was a major plus. It is heated and offers one of the best sunset views in the Dallas area.  There is a seasonal pool bar that was closed in March, but looked like it would be handy in the summer. The rooms were very modern and clean with two comfy queen beds and a nice glass shower. We had club access for breakfast. However, the club was closed for the rest of the day because it was a weekend. This is a bummer, but not unexpected since The Renaissance is primarily a business hotel.  The breakfast was pretty good for a basic club breakfast. We had eggs, sausage, and assorted breads, yogurt, cereals, and juices. One morning, they had pancakes which the boys loved. I really enjoyed the illy coffee. The staff is very helpful and responsive. We were walking to a restaurant for dinner when it started raining. The front desk loaned us large golf umbrellas...We traveled to Plano, Texas for the weekend to enjoy all that Dallas and its suburbs have to offer. My sister and I had our three teenage/ preteen boys with us. So, we were in the market for everything boys! This hotel provided a great location for visiting the National Video Game Museum (yes there is such a thing), IFly indoor skydiving,  and the Dallas Cowboys training complex. There are plenty of wonderful restaurants within walking distance at Legacy Place. The rooftop pool was a major plus. It is heated and offers one of the best sunset views in the Dallas area.  There is a seasonal pool bar that was closed in March, but looked like it would be handy in the summer. The rooms were very modern and clean with two comfy queen beds and a nice glass shower. We had club access for breakfast. However, the club was closed for the rest of the day because it was a weekend. This is a bummer, but not unexpected since The Renaissance is primarily a business hotel.  The breakfast was pretty good for a basic club breakfast. We had eggs, sausage, and assorted breads, yogurt, cereals, and juices. One morning, they had pancakes which the boys loved. I really enjoyed the illy coffee. The staff is very helpful and responsive. We were walking to a restaurant for dinner when it started raining. The front desk loaned us large golf umbrellas for the walk - very much appreciated. Again, the legacy west area is wonderful with tons of shopping , cafes, and restaurants. We loved the brunch at Earl's kitchen. If you are looking to stay at a hotel in the Plano area, I would definitely recommend this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>We traveled to Plano, Texas for the weekend to enjoy all that Dallas and its suburbs have to offer. My sister and I had our three teenage/ preteen boys with us. So, we were in the market for everything boys! This hotel provided a great location for visiting the National Video Game Museum (yes there is such a thing), IFly indoor skydiving,  and the Dallas Cowboys training complex. There are plenty of wonderful restaurants within walking distance at Legacy Place. The rooftop pool was a major plus. It is heated and offers one of the best sunset views in the Dallas area.  There is a seasonal pool bar that was closed in March, but looked like it would be handy in the summer. The rooms were very modern and clean with two comfy queen beds and a nice glass shower. We had club access for breakfast. However, the club was closed for the rest of the day because it was a weekend. This is a bummer, but not unexpected since The Renaissance is primarily a business hotel.  The breakfast was pretty good for a basic club breakfast. We had eggs, sausage, and assorted breads, yogurt, cereals, and juices. One morning, they had pancakes which the boys loved. I really enjoyed the illy coffee. The staff is very helpful and responsive. We were walking to a restaurant for dinner when it started raining. The front desk loaned us large golf umbrellas...We traveled to Plano, Texas for the weekend to enjoy all that Dallas and its suburbs have to offer. My sister and I had our three teenage/ preteen boys with us. So, we were in the market for everything boys! This hotel provided a great location for visiting the National Video Game Museum (yes there is such a thing), IFly indoor skydiving,  and the Dallas Cowboys training complex. There are plenty of wonderful restaurants within walking distance at Legacy Place. The rooftop pool was a major plus. It is heated and offers one of the best sunset views in the Dallas area.  There is a seasonal pool bar that was closed in March, but looked like it would be handy in the summer. The rooms were very modern and clean with two comfy queen beds and a nice glass shower. We had club access for breakfast. However, the club was closed for the rest of the day because it was a weekend. This is a bummer, but not unexpected since The Renaissance is primarily a business hotel.  The breakfast was pretty good for a basic club breakfast. We had eggs, sausage, and assorted breads, yogurt, cereals, and juices. One morning, they had pancakes which the boys loved. I really enjoyed the illy coffee. The staff is very helpful and responsive. We were walking to a restaurant for dinner when it started raining. The front desk loaned us large golf umbrellas for the walk - very much appreciated. Again, the legacy west area is wonderful with tons of shopping , cafes, and restaurants. We loved the brunch at Earl's kitchen. If you are looking to stay at a hotel in the Plano area, I would definitely recommend this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r571813979-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>571813979</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel in a perfect location!</t>
+  </si>
+  <si>
+    <t>We spent a long weekend here on a business trip and it was perfect! Our room was spectacular. Views are great. Love love love the decor! Bathroom was great, along with Aveda products! WiFi is seat! Close to shopping, great food spots. Customer service at its finest! We will return!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r569186677-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -352,9 +799,6 @@
     <t>Unfortunately I was only at the property for 13 hours but loved it. Rooms are nice, clean, new! Aveda products in the bath and plush towels.  Comfy bed and bedding, good TV, real creamer for coffee (I hate the powder crap) and location next to the mall with everything you want/need. Will make this my go to when in Plano.</t>
   </si>
   <si>
-    <t>Bookroxy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r568443928-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -370,12 +814,6 @@
     <t xml:space="preserve">Spent several days here for a conference.  The room was large and well decorated.  There was only a shower, no bathtub. The bed was terrific.  There was a smart TV and reliable WiFi.  Coffee maker was available in the room.  There is a restaurant and a bar on premise along with a coffee and snack area.  The rooms were very quiet.  Nice location near shopping and restaurants. </t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>PacoToonces</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r567970408-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -400,7 +838,37 @@
     <t>While clearly a conference hotel, which is why I was there, it was very nice, clean, great staff, and good layout. Rooms were reasonable size and lots of good restaurants in the adjacent outdoor mall.More</t>
   </si>
   <si>
-    <t>Lisa O</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r567674803-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>567674803</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Perfect weekend getaway!</t>
+  </si>
+  <si>
+    <t>I tend to travel a lot and wanted to take my wife away for a nice getaway for her birthday weekend.  I could not be more pleased with this hotel - they went out of their way and even though the weather did not cooperate, it was a fantastic weekend.  I really owe everyone at the Renaissance a huge thanks!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r566733216-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>566733216</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>The perfect hotel in the perfect area</t>
+  </si>
+  <si>
+    <t>From the moment Jordan H. checked us in, we knew our weekend getaway would be great. The hotel still feels very new (which it is), and all the staff are super friendly. We enjoyed breakfast each day in the restaurant since the lounge is closed on the weekends, and the food was just fantastic!Then you step outside the hotel to tons of shopping and eating options, including the amazing Legacy Hall with three floor of food vendors.Will stay here again next time my wife and I get a weekend free.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r565681937-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -418,9 +886,6 @@
     <t xml:space="preserve">Beautiful modern hotel with unique Asian accents. Hotel staff is attentive and gracious.  Rooms are clean, with comfortable furnishings, and the higher floors have nice views. The location is ideal and the numerous shops and restaurants within walking distance are top notch.  We opted for the smaller room with the Asian style bathroom because we wanted a soaking tub with separate shower and loved the set up.  We enjoyed hanging out at the bar, the outdoor fire pit, and the pool.  We highly recommend walking to the Legacy Food Hall too.  We will be back!  Thanks for a great weekend! </t>
   </si>
   <si>
-    <t>pinkgirl7938</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564366248-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -436,12 +901,6 @@
     <t xml:space="preserve">My husband and I stayed 2 nights at this hotel to celebrate our 20th anniversary. The staff was attentive, even helped us find good restaurants in the area. We will stay at this hotel again when we want a staycation.  </t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Dr Dee M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564260883-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -463,7 +922,34 @@
     <t>A brand new exotic hotel of Marriott in the upscale area of Legacy, Plano (Dallas), TX.The "East meets West"concept is original and nice.Here, you find western style with a flare of Asia. Excellent customer service throughout along with great rooms, amenities and conveniences. Must try!More</t>
   </si>
   <si>
-    <t>Gerardoverap</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r564134110-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>564134110</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Love this beautiful hotel.  Good location !</t>
+  </si>
+  <si>
+    <t>Beautiful hotel/lobby.  Nicely decorated room. The entire staff is friendly.  Good location.  Walking distance to new shops and restaurants.  Good food in concierge lounge.  Highly recommend this hotel to family and friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r563395058-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>563395058</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Property and location </t>
+  </si>
+  <si>
+    <t>Stayed here for a conference and was very satisfied with the experience. Legacy West has so much to offer with shopping and restaurants. I would stay here again if given the opportunity. Staff was so kind, concierge lounge was always well stock and comfortable. This is a great hotel!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r561581409-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -481,9 +967,6 @@
     <t xml:space="preserve">The renaissance at Plano is a great hotel. The hotel is new and functional. The room is comfirtable and spacious. It has all the required ammenities like usb chargers and power outlets. The TV has internet options like Hulu or Netflix! Nice! The bathroom has different color lights... cool... The decor is modern and cool. The hotel has a nice outdoor pool &amp; Jacuzzi... also a nice gym!!! The hotel also has a very nice Bar with great ambiance (I stayed for a weekend) The service was excellent!!! Great choice... highly recommended!!!  </t>
   </si>
   <si>
-    <t>Grant C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r559513659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -499,9 +982,6 @@
     <t xml:space="preserve">I have been to quite a few Marriott and Renaissance hotels over the past few years and this is the one by which all others should be judged. The rooms are spacious and well decorated. I was suspicious about the shower mood lighting but it was actually quite effective in reducing stress and being bright and uplifting in the morning. The rooftop pool is beautiful and the gym has everything you could need. </t>
   </si>
   <si>
-    <t>Riva N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r557567757-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -529,7 +1009,37 @@
     <t>My daughter found out she would be at the Renaissance Dallas at Plano Legacy West Hotel for business on her birthday. I wasn't sure what to do and found myself perusing local florists but then realized how silly that would be since she can't bring flowers on the plane. So I called the hotel and spoke w. Ben Shoemaker, Rooms Controller who put my mind at ease. He sent me a hotel amenity form which I filled out and immediately he fulfilled my request. I have no immediate plans to go to Texas, however now I want to go, just to visit the hotel and thank Ben personally. Thank you Ben, for all you do!More</t>
   </si>
   <si>
-    <t>SSHotelman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r554688144-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>554688144</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Amazing Hotel and Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best hotels we have ever stayed at.Claudia was Amazing and very personable. The breakfast was incredible. Valet has some of the most friendly guys ever. The hotel is a complete experience. Amazing and incredible. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r554478672-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>554478672</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and wonderful staff</t>
+  </si>
+  <si>
+    <t>Definitely one of my favorite hotels I've stayed at. Room: The room was spacious and elegantly decorated, had a great view, and featured a roomy bathroom with color changing lighting in the shower.Bar and Restaurant: The food and drink were reasonably priced for the area. Staff was very friendly, and I quite enjoyed sitting by the fire pit outside on a chilly January night. The flatbread pizza was delicious and the brisket ramen was absolutely fantastic if you enjoy spicy and flavorful food.Club Lounge: Breakfast was on point. Multiple proteins, greek yogurt, pastries, and assorted cereals to choose from. The staff was also pleasant to talk to and cleared the tables in a timely manner. In addition, the lounge was open throughout the afternoon if you wanted to come by and grab a soft drink.  Pool: even though it was January, we went upstairs and checked out the hot tub and heated rooftop pool. I usually don't make much of a point to check out a hotel pool, but this one is definitely worth packing a swimsuit for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Definitely one of my favorite hotels I've stayed at. Room: The room was spacious and elegantly decorated, had a great view, and featured a roomy bathroom with color changing lighting in the shower.Bar and Restaurant: The food and drink were reasonably priced for the area. Staff was very friendly, and I quite enjoyed sitting by the fire pit outside on a chilly January night. The flatbread pizza was delicious and the brisket ramen was absolutely fantastic if you enjoy spicy and flavorful food.Club Lounge: Breakfast was on point. Multiple proteins, greek yogurt, pastries, and assorted cereals to choose from. The staff was also pleasant to talk to and cleared the tables in a timely manner. In addition, the lounge was open throughout the afternoon if you wanted to come by and grab a soft drink.  Pool: even though it was January, we went upstairs and checked out the hot tub and heated rooftop pool. I usually don't make much of a point to check out a hotel pool, but this one is definitely worth packing a swimsuit for.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r548067182-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -553,9 +1063,6 @@
     <t>I attended my wife’s Holiday party on December 16, the event was for 1000ppl. The group had bought out almost all the guestrooms and the meeting space. Upon arriving valet was all over it, very friendly and willing to assist. The check-in process was fast and friendly. We grabbed a quick drink at the lobby bar and dashes to our room. Beautiful guestroom, liked the mood lighting in the bathroom. The event was great (I’m in the business and was looking for things) service was excellent, food was tasty only drawback was the bar lines, but it was 1000ppl on a host bar. Love the décor of the hotel- Very cool place and I will be back.More</t>
   </si>
   <si>
-    <t>nowpacking</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547971440-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -571,9 +1078,6 @@
     <t xml:space="preserve">Beautiful new hotel located just steps from the shops and restaurants at Legacy West.  Huge lobby with lots of seating areas.  Very professional and friendly staff from the moment we drove up to check in with lots of great suggestions on what to do and where to eat.  Room was very nice and super clean.  Very comfy bed and nice bathroom.  Bathroom could use additional lighting for makeup.  So much shopping nearby you could stay for days!  </t>
   </si>
   <si>
-    <t>FairlyWellTraveled</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547655505-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -592,7 +1096,37 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>Gifford P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r547449896-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>547449896</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel!</t>
+  </si>
+  <si>
+    <t>Great stay, the hotel is very new, and the design is Amazing! the staff were great and efficient, the rooms were a pleasant surprise, you really can not ask for anything more, I truly hope they can keep it up, they have a proper Gym! overall it was a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r544696209-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>544696209</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>We stayed here over the Thanksgiving weekend.  The Renaissance has only been open since summer, so everything still looks (and smells) brand new.Check in was quick and efficient.  The king room we had was not terribly big, but was adequate.  The bathroom was nice, with a large walk-in shower with a multi-color mood light that can be dimmed and work as a night light.  The bathroom door is a trendy, heavy barn-door style which is difficult to close quietly during the night when using the facilities.Service was typically very good throughout our stay.  Essentially every employee we ran into was friendly and polite.  We almost never had to open the front door coming and going.  We took advantage of room service for breakfast two of the mornings.  The first day they came about 10 minutes early; the second time they nailed the requested time exactly.The hotel location was excellent, with the many Legacy area shoppes and restaurants right outside and across the tollway.  The hotel does have a shuttle available, though their website does not yet mention this.Overall, we enjoyed our stay, and can easily recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here over the Thanksgiving weekend.  The Renaissance has only been open since summer, so everything still looks (and smells) brand new.Check in was quick and efficient.  The king room we had was not terribly big, but was adequate.  The bathroom was nice, with a large walk-in shower with a multi-color mood light that can be dimmed and work as a night light.  The bathroom door is a trendy, heavy barn-door style which is difficult to close quietly during the night when using the facilities.Service was typically very good throughout our stay.  Essentially every employee we ran into was friendly and polite.  We almost never had to open the front door coming and going.  We took advantage of room service for breakfast two of the mornings.  The first day they came about 10 minutes early; the second time they nailed the requested time exactly.The hotel location was excellent, with the many Legacy area shoppes and restaurants right outside and across the tollway.  The hotel does have a shuttle available, though their website does not yet mention this.Overall, we enjoyed our stay, and can easily recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r543171939-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -610,9 +1144,6 @@
     <t xml:space="preserve">All of the staff is phenomenal and the facility is great and nicely kept. We had a great breakfast. We will definitely will stay here again on our next visit. Great choice if you're in the Plano area. </t>
   </si>
   <si>
-    <t>Chicas1977</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542410941-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -628,9 +1159,6 @@
     <t>New and fresh hotel with great service just beside the shops at West Legacy. The rooms were new, modern and comfortable, with nice decor. Loved the theme with a mix of asian elements and Texas style. Had a nice room on the 10th floor with floor to ceiling windows. Great bathroom. Had breakfast one morning and it was very good. Nice bar and reception. Attentive and friendly staff all over. Definitely a place we will come back to.</t>
   </si>
   <si>
-    <t>TallTexan75229</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542267318-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -649,7 +1177,28 @@
     <t>I stayed here on business in November 2017.  I had a king room confirmed, but when I checked in at 3pm, they had no king rooms.  I explained it was confirmed and all they could say is they had none.  Needless to say I was not at all happy from the start, but that was just check-in.The hotel is new so everything is nice.  The staff is very nice, as are the facilities.  The hotel is a modern style hotel but is clearly sucking up to the Toyota offices nearby with a bizarre theme of The Orient meets Cowboy.  The room had 2 beds (see above... grr) with a pillow on one bed that said "Samurai" and a pillow on the other that said "cowboy".  There was a Texan quote scrawled vertically from the base of a mirror onto the ceiling from a Texan.  Having writing is not cute but especially the way they did it.  The hotel has artwork that is either cowboy or Japanese.  It makes no sense.  Those quirks aside, the important thing is that yes, this is a nice hotel where you will get a nice room and nice service.  The food was alright.  Not bad, not great.  If I were staying in Plano, I'd come back here.More</t>
   </si>
   <si>
-    <t>dfisch891</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r542158874-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542158874</t>
+  </si>
+  <si>
+    <t>Really lovely hotel.  Great decor. Bed linen incredibly soft. Get bonus Marriott points for not having your room turned over which is a bonus for business travellers who don't need heaps of soaps.Great accessible Wifi. Loving the Samurai Cowboy theme! Really works in this part of the world.Food is delicious. Regularly had Eggs Benedict with Smoked Salmon and it was delicious.Well stocked bar and super fire pit for cosy evenings.Team are really lovely. Merron in the Oma restaurant serving breakfast was particularly charming.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r539980501-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>539980501</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchanting Asian-themed Hotel </t>
+  </si>
+  <si>
+    <t>Such a lovely welcoming hotel that I️ just had to write a review.  The sparkling new well-designed king room was a delight with its large, two person shower and with the Samurai Cowboy motif of the room adding a bit of whimsy. Especially nice were the sliding interior doors of the room making it feel larger and in keeping with its Asian theme. Friendly, welcoming staff and the gorgeous new Legacy West shops and restaurants at your doorstep...a fun experience and Christmas decorations are going up!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r538745247-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -673,9 +1222,6 @@
     <t>I stayed at this property for a few days and, overall, it was good. Some more details:Pros: New, good location (lots of dining options in the area, easy access to the tollways, about 30 min to the airport and downtown Dallas), good valet service, fast Internet and big rooms (I was upgraded).Cons: Expensive valet service, awkward toilet without a lot of space (at lease in my room), dirty rooms for a new hotels (dust, food on the floors from the last guest, etc.).In the end, I would stay at this property again; however, I will be mindful of other reviews regarding how clean it is. For such a new hotel, I would expect it to be in better shape...I am guessing that it has to do with growing pains or a poor management company.More</t>
   </si>
   <si>
-    <t>April G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r537272367-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -691,9 +1237,6 @@
     <t xml:space="preserve">We stayed at this hotel last weekend and it was absolutely beautiful! The location was perfect bar and restaurant a few step for the hotel! The hotel itself had a nice bar with strong drinkswe didn't have time to check out the hotel restaurant. The room were spacious, clean and very modern..FYI I love that the light in the shower change colors! The hotel itself had exciting, modern and beautifully decorated. It was too cold to go to the pool but it was nice. Overall it was a great stay. Things you should know parking is $17 a night and the drinks are great but pricey! </t>
   </si>
   <si>
-    <t>Attymikeb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r536645659-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -709,7 +1252,37 @@
     <t>So this entire Legacy West deal is new and so is the hotel. Great location to travel all over metroplex and lots nearby. Walking to great food and shops and short courtesy suv drive to lots more. The hotel service is great. Awesome whiskey bar. Very cool decor that they refer to as Samurai Cowboy. Enuff said about that. I include pics. Good wifi, hot showers, and great king beds. Parking garage attached- self or valet. Big screens in the bar. Good but not great breakfast. Lounge is a must do. Very nice work out space and pool deck. Will definitely stay there again.</t>
   </si>
   <si>
-    <t>Flourpowers</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r536166772-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>536166772</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Best service experience EVER...</t>
+  </si>
+  <si>
+    <t>We had the best service...  greeted immediately upon arrival, offered a bottle of water, and were shown genuine interest by the front desk staff...  after checking us in we were personally escorted to the elevators and wishes a pleasant stay...  mt wife and i were just doing a quick overnight stay away from the kids for an evening to go to dinner and the front desk gentleman, Ainsley, was just great...  we wanted to try a local favorite that we had eaten at once before in NY, Shake Shack, and check out the shops at Legacy...  I told him of our simple plans for the evening, and to our surprise when we got upstairs he knocked on our door about 5min later... he presented us with a personalize thank you note for choosing this particular  Marriott hotel and once he left we opened the card...  inside was a simple gift certificate to Shake Shack...  we were shocked and delighted that he went above and beyond to provide us with such a great experience and we would highly recommend staying at this hotel if you are visiting Dallas or would just like an evening out away from the hustle of life, I know we will stay here again...MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the best service...  greeted immediately upon arrival, offered a bottle of water, and were shown genuine interest by the front desk staff...  after checking us in we were personally escorted to the elevators and wishes a pleasant stay...  mt wife and i were just doing a quick overnight stay away from the kids for an evening to go to dinner and the front desk gentleman, Ainsley, was just great...  we wanted to try a local favorite that we had eaten at once before in NY, Shake Shack, and check out the shops at Legacy...  I told him of our simple plans for the evening, and to our surprise when we got upstairs he knocked on our door about 5min later... he presented us with a personalize thank you note for choosing this particular  Marriott hotel and once he left we opened the card...  inside was a simple gift certificate to Shake Shack...  we were shocked and delighted that he went above and beyond to provide us with such a great experience and we would highly recommend staying at this hotel if you are visiting Dallas or would just like an evening out away from the hustle of life, I know we will stay here again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r535518546-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>535518546</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Nice business hotel, great conference rooms</t>
+  </si>
+  <si>
+    <t>Room was nice and comfortable.  Mini fridge, Aveda products, nice shower with mood lighting options!  Nice roof top pool/bar, on 2nd floor, but looked very inviting. Food wasn't spectacular, but plenty of options nearby. Of course you're captive for conferences though. My room was quiet on 7th floor overlooking rooftops, bed was comfortable.  Staff was very friendly and accommodating, I'd stay here again!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r534958663-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -727,9 +1300,6 @@
     <t>We held our conference at this new hotel and everything was awesome!  The service was great and the hotel is beautiful. The room service person told me all about the amazing art throughout the hotel so they must train their personnel very well.  It's obvious that it is very well run.  Bravo!</t>
   </si>
   <si>
-    <t>N P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r531049096-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -751,9 +1321,6 @@
     <t>Stayed here while attending a conference. My room was next to the highway and starting about 5:30 the traffic noise was terrible and I couldn’t sleep. I suggest you request a room AWAY from the highway. The room was very nicely decorated and comfortable but didn’t have a bathtub which was different. I prefer baths to showers.We went to the hotel restaurant on our one hour break from the sessions and the 8 of us ordered either sandwiches or salads. It took 30 to 40 minutes to get our food ad they came out one at a time rather than all at once. Several of us had to take our lunch to go or we would be late to the next session. The restaurant manager didn’t apologize, instead she told us, this is not the kind of place you come for a quick lunch.  Really? You serve salads and sandwiches! Maybe it’s just growing pains for a new hotel, but I suggest you stay at the Hilton across the tollway until the Renaissance gets its act together.More</t>
   </si>
   <si>
-    <t>barbhenz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r530281094-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -772,7 +1339,37 @@
     <t>We had the pleasure of staying here for a family wedding, and it was the first wedding the hotel had hosted.  The entire stay was really lovely.  Check in was a breeze and everyone at the front desk was friendly and engaging.  Everything is truly top-notch.  I had called to make reservations long before they were even open and had the pleasure of speaking to the manager.  His way of following up with us after check in was really exceptional!!Thank you!!!  The hotel has some pretty amazing artwork throughout.  Make sure to take a few minutes to walk around and take it all in.  The pool area is fabulous and the spa just the right temp.  The food service around the pool was a little slow, but nothing bad.  The only thing I might comment on is there is a fragrance when you first enter the hotel lobby that at first is a nice touch, but it is so strong it gets a bit overwhelming.  Excellent location withso many shops and restaurants nearby.  We will definetly stay again.More</t>
   </si>
   <si>
-    <t>BrownsteadRealEstate</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r528057777-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>528057777</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel!</t>
+  </si>
+  <si>
+    <t>This property is very new. It is very cool with lots of unique decorating touches. Surrounded by great restaurants and shops in a new shopping area. Great for a girls weekend getaway or a romantic retreat. The pool and spa area is stunning. The Aveda toiletries are great! I feel like I am at a spa! Love this place. The staff is very friendly and helpful. Parking is easy, valet or self park. The beds are so comfortable. I don't want to go home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r527851667-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>527851667</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Plain Ol' FABULOUS</t>
+  </si>
+  <si>
+    <t>Brand new to Plano, this Renaissance is truly fabulous.   They have a unique "samurai cowboy" theme with east meeting west.   Modern, with jaw dropping art and sculpture - there are comfort nooks for calls and private meetings scattered through out the property.  The Tea House and Market serves excellent Illy coffee and has full service for lattes etc.   The in-house restaurant is cozy and the food is very Asian focused. Had the tuna/avocado poke and it was well made.   The best aspect are the employees!    Shout out to Ainsley as a truly customer focused associate!    If in Plano - and you stay anywhere else - you will miss out on a superior and memorable experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new to Plano, this Renaissance is truly fabulous.   They have a unique "samurai cowboy" theme with east meeting west.   Modern, with jaw dropping art and sculpture - there are comfort nooks for calls and private meetings scattered through out the property.  The Tea House and Market serves excellent Illy coffee and has full service for lattes etc.   The in-house restaurant is cozy and the food is very Asian focused. Had the tuna/avocado poke and it was well made.   The best aspect are the employees!    Shout out to Ainsley as a truly customer focused associate!    If in Plano - and you stay anywhere else - you will miss out on a superior and memorable experience. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r526558263-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -790,9 +1387,6 @@
     <t>Another enjoyable stay at this hotel, it is new, clean, hip and centrally located. The staff is very friendly, the food great and the rooms are beautifully loaded with luxurious features! The only suggestion I have the bath soap, really, Days Inn style soap???</t>
   </si>
   <si>
-    <t>Fernando L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r525201146-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -808,9 +1402,6 @@
     <t>The hotel is really nice is brand new like two months ago that they opened, they have the legacy shops around really nice they have many stores many options, restaurants, I really like the hotel you can take Uber but on the weekend is not very easy to take Uber at night if you want to go to Dallas.</t>
   </si>
   <si>
-    <t>216bryan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r523755494-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -832,7 +1423,37 @@
     <t>The Renaissance hotel has been an amazing experience.  The accommodations are first class, and the entire hotel is super clean.  When you walk in the door you are greeted with smiles and people holding the door open when you come and go.  The rooms are super spacious with fantastic views.  The roof top pool is amazing, with a vegas feel without the rowdiness.  The entire staff makes you feel at home and constantly are asking what they can do for you.  The Bar has a great vibe and the food is outstanding.  If you really want an amazing meal try the bone in pork belly over the mac and cheese.  I have stayed at many hotels around the world and the service and atmosphere here is better than any five star hotel I have ever stayed at.  I think this is the greatest hotel in the entire state of TX.More</t>
   </si>
   <si>
-    <t>Vgarc</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r523556580-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>523556580</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Classy comfortable convenient new hotel</t>
+  </si>
+  <si>
+    <t>Who doesn't like the smell of a brand new hotel?  Another property in the ever-expanding Shops at Legacy area and a nicely luxurious one at that - and surprisingly affordable, comparable to the nearby Hilton and Marriott in price.  Sleek contemporary lobby, well-equipped gym (full weights, Universal, ellipticals, treadmills, and bicycles) and luxe outdoor pool, classy and serene Executive Lounge, friendly service and reception, and - of course - the accommodations are comfortable and quiet.  Very easy to access from the  Headquarters/Corporate Drive areas, too.  I look forward to staying here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r522735068-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>522735068</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Interesting theme...</t>
+  </si>
+  <si>
+    <t>This hotel is newly opened in Jul., 2017. It might be because of the owner is Korean, you will see a lot of influence of Asian culture and art in the hotel. The room has a theme of corroboration of Texas and Asia. The room had a figure of lucky cat for business and money and cowboy hat displayed. The pillow had a signature of "cowboy" and "samurai". But the other side, there is no bath tub in King size bed room but only shower. Asian people like taking bath. I thought there should be Japanese style toilet with bidet shower but just regular western style toilet. I am not sure if the hotel is targeting Asian guests but I felt it might eliminate guests with very stereotyped theme. I loved the outside swimming pool that also offers bar and the Marriott VIP member room at 9th floor. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is newly opened in Jul., 2017. It might be because of the owner is Korean, you will see a lot of influence of Asian culture and art in the hotel. The room has a theme of corroboration of Texas and Asia. The room had a figure of lucky cat for business and money and cowboy hat displayed. The pillow had a signature of "cowboy" and "samurai". But the other side, there is no bath tub in King size bed room but only shower. Asian people like taking bath. I thought there should be Japanese style toilet with bidet shower but just regular western style toilet. I am not sure if the hotel is targeting Asian guests but I felt it might eliminate guests with very stereotyped theme. I loved the outside swimming pool that also offers bar and the Marriott VIP member room at 9th floor. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r519155613-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -850,9 +1471,6 @@
     <t xml:space="preserve">I stayed at this beautiful hotel 4 nights due to a business trip. When I arrived, I was treated like If i was the only one guest. Everyone from the door man to the receptionist and every person that works at the restaurant/Bar/pool area was extremely friendly and polite. My review is base on my experience but everything else in that hotel it's just beautiful, they made me feel like at home.... Loved the cowboys(girls) hat </t>
   </si>
   <si>
-    <t>Jennifer S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r517810303-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -871,9 +1489,6 @@
     <t>Renaissance set a new gold standard with this one! What a fabulous hotel!It's an Asian fused Western theme and it works very, very well! It's apparent that much thought and effort was put into each area of the hotel from the decor to the furniture to the room setup. Lots of great nooks to be able to have a seat and be by yourself or visit with others. My husbands company sponsored a large event here and the ballroom area was fantastic! Instead of seating at round tables, the seating was rectangular tables of 10, which gave the feel of a home dinner party. Very clever! Service during the event was spot on and the food was fabulous!Our room for the night was wonderful! Very well appointed and very comfortable. Bed was comfy and we slept very good. The shower area was really cool w/ a shower/bath combination.I really love how the East meets West theme is carried throughout this hotel ~ very impressive! This one certainly bumps the standard for other hotels to a whole new level! If you're looking for a hotel in the Dallas area, this one certainly will not disappoint!!More</t>
   </si>
   <si>
-    <t>JKO3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r508712614-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -889,7 +1504,37 @@
     <t>Whether in Plano/ Dallas area for fun, family or business, this hotel is the perfect option!Beautiful hotel, great location, impeccable service and well appointed rooms!Very impressed!The pool and lounge area is perfectly done, daytime swimming or evening cocktails!!Very close to wonderful restaurants and shopping too.</t>
   </si>
   <si>
-    <t>Bigpayne31</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r507546328-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>507546328</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>First Time</t>
+  </si>
+  <si>
+    <t>It is now the best hotel in Plano by far. Plano really had no really nice hotels until now. Go place for a weekend staycation  with all kinds of things to do close by. By Xmas this place will be nuts with all the new retail opening up</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r506833666-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>506833666</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic hotel. My stay was very memorable. I can't say enough about the staff. Probably some of the best customer service I've ever experienced. The rooms are a bit larger than your standard hotel room. The bed was surprisingly very comfortable. The hotel overall is elegant &amp; upscale. Please don't mistake the Renaissance for a Marriott or Hyatt. The bar is set very high with Renaissance. My first stay with them and definitely not my last. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r506486770-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -907,15 +1552,6 @@
     <t>My wife and I really enjoyed the hotel for our anniversary. The room we had was very nice and the TVs are equipped with Netflix and Hulu which made staying in the room. The room service food needs to be improved but I understand the hotel is in its infancy so improvements will be made and I can't wait to come back.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Paul M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r503280430-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
   </si>
   <si>
@@ -932,9 +1568,6 @@
   </si>
   <si>
     <t>I just completed a night stay at this new Renaissance and was very happy.  The property is very well laid out and appointed and the staff was both polite and helpful.  I'd like to call out the Concierge lounge attendant Oneida for being especially helpful.  The pool setup is lively and relaxing.  The workout room is very well equipped.  The room was functional although the "Asian Bath" arrangement with tub and shower integrated in the same enclosure was a bit odd.  There were a couple of glitches to be sure but with the property being only a week old it was expected. I hope to find an opportunity to try it again.More</t>
-  </si>
-  <si>
-    <t>David Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12263357-r502488631-Renaissance_Dallas_at_Plano_Legacy_West_Hotel-Plano_Texas.html</t>
@@ -1457,456 +2090,412 @@
       <c r="A2" t="n">
         <v>66334</v>
       </c>
-      <c r="B2" t="n">
-        <v>93262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66334</v>
       </c>
-      <c r="B3" t="n">
-        <v>175061</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66334</v>
       </c>
-      <c r="B4" t="n">
-        <v>1132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66334</v>
       </c>
-      <c r="B5" t="n">
-        <v>175062</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66334</v>
       </c>
-      <c r="B6" t="n">
-        <v>29477</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66334</v>
       </c>
-      <c r="B7" t="n">
-        <v>82529</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66334</v>
       </c>
-      <c r="B8" t="n">
-        <v>175063</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -1916,183 +2505,189 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66334</v>
       </c>
-      <c r="B9" t="n">
-        <v>175064</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66334</v>
       </c>
-      <c r="B10" t="n">
-        <v>175065</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66334</v>
       </c>
-      <c r="B11" t="n">
-        <v>3227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2103,183 +2698,189 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66334</v>
       </c>
-      <c r="B12" t="n">
-        <v>175066</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66334</v>
       </c>
-      <c r="B13" t="n">
-        <v>175067</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
         <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66334</v>
       </c>
-      <c r="B14" t="n">
-        <v>175068</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2290,57 +2891,57 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66334</v>
       </c>
-      <c r="B15" t="n">
-        <v>80902</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2351,190 +2952,180 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66334</v>
       </c>
-      <c r="B16" t="n">
-        <v>175069</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
         <v>160</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>162</v>
       </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66334</v>
       </c>
-      <c r="B17" t="n">
-        <v>69592</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" t="s">
-        <v>174</v>
-      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66334</v>
       </c>
-      <c r="B18" t="n">
-        <v>139198</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
         <v>178</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>179</v>
-      </c>
-      <c r="J18" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" t="s">
-        <v>182</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2544,97 +3135,103 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66334</v>
       </c>
-      <c r="B19" t="n">
-        <v>175070</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>186</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>187</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>188</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="X19" t="s">
         <v>189</v>
       </c>
-      <c r="O19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66334</v>
       </c>
-      <c r="B20" t="n">
-        <v>175071</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
         <v>192</v>
@@ -2652,10 +3249,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2666,66 +3263,64 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66334</v>
       </c>
-      <c r="B21" t="n">
-        <v>175072</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2733,374 +3328,384 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66334</v>
       </c>
-      <c r="B22" t="n">
-        <v>175073</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66334</v>
       </c>
-      <c r="B23" t="n">
-        <v>175074</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66334</v>
       </c>
-      <c r="B24" t="n">
-        <v>26614</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66334</v>
       </c>
-      <c r="B25" t="n">
-        <v>175075</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66334</v>
       </c>
-      <c r="B26" t="n">
-        <v>175076</v>
-      </c>
-      <c r="C26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66334</v>
       </c>
-      <c r="B27" t="n">
-        <v>41297</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3114,121 +3719,103 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66334</v>
       </c>
-      <c r="B28" t="n">
-        <v>175077</v>
-      </c>
-      <c r="C28" t="s">
-        <v>243</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28" t="s">
-        <v>241</v>
-      </c>
-      <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66334</v>
       </c>
-      <c r="B29" t="n">
-        <v>139894</v>
-      </c>
-      <c r="C29" t="s">
-        <v>250</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3242,54 +3829,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66334</v>
       </c>
-      <c r="B30" t="n">
-        <v>175078</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3300,64 +3883,66 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66334</v>
       </c>
-      <c r="B31" t="n">
-        <v>175079</v>
-      </c>
-      <c r="C31" t="s">
-        <v>262</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3368,54 +3953,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66334</v>
       </c>
-      <c r="B32" t="n">
-        <v>175080</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3435,54 +4016,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66334</v>
       </c>
-      <c r="B33" t="n">
-        <v>450</v>
-      </c>
-      <c r="C33" t="s">
-        <v>276</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3496,51 +4073,51 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66334</v>
       </c>
-      <c r="B34" t="n">
-        <v>175081</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
@@ -3553,39 +4130,35 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66334</v>
       </c>
-      <c r="B35" t="n">
-        <v>175082</v>
-      </c>
-      <c r="C35" t="s">
-        <v>289</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
         <v>293</v>
@@ -3594,59 +4167,53 @@
         <v>294</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s">
-        <v>296</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66334</v>
       </c>
-      <c r="B36" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C36" t="s">
-        <v>297</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
         <v>299</v>
@@ -3664,19 +4231,17 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3687,54 +4252,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66334</v>
       </c>
-      <c r="B37" t="n">
-        <v>21832</v>
-      </c>
-      <c r="C37" t="s">
-        <v>304</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J37" t="s">
         <v>305</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>306</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>307</v>
       </c>
-      <c r="K37" t="s">
-        <v>308</v>
-      </c>
-      <c r="L37" t="s">
-        <v>309</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3748,7 +4309,2259 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
         <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>323</v>
+      </c>
+      <c r="O42" t="s">
+        <v>146</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>368</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" t="s">
+        <v>371</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>355</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>355</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s">
+        <v>385</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>399</v>
+      </c>
+      <c r="J54" t="s">
+        <v>400</v>
+      </c>
+      <c r="K54" t="s">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s">
+        <v>402</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>396</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>396</v>
+      </c>
+      <c r="O58" t="s">
+        <v>85</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>429</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>432</v>
+      </c>
+      <c r="J60" t="s">
+        <v>433</v>
+      </c>
+      <c r="K60" t="s">
+        <v>434</v>
+      </c>
+      <c r="L60" t="s">
+        <v>435</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>429</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>438</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>440</v>
+      </c>
+      <c r="L61" t="s">
+        <v>441</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>429</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K63" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" t="s">
+        <v>452</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>429</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>453</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" t="s">
+        <v>455</v>
+      </c>
+      <c r="K64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>461</v>
+      </c>
+      <c r="L65" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>463</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>465</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>466</v>
+      </c>
+      <c r="J66" t="s">
+        <v>467</v>
+      </c>
+      <c r="K66" t="s">
+        <v>468</v>
+      </c>
+      <c r="L66" t="s">
+        <v>469</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>429</v>
+      </c>
+      <c r="O66" t="s">
+        <v>85</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>470</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>471</v>
+      </c>
+      <c r="J67" t="s">
+        <v>472</v>
+      </c>
+      <c r="K67" t="s">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s">
+        <v>474</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>429</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>476</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>477</v>
+      </c>
+      <c r="J68" t="s">
+        <v>478</v>
+      </c>
+      <c r="K68" t="s">
+        <v>479</v>
+      </c>
+      <c r="L68" t="s">
+        <v>480</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>463</v>
+      </c>
+      <c r="O68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>481</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>482</v>
+      </c>
+      <c r="J69" t="s">
+        <v>483</v>
+      </c>
+      <c r="K69" t="s">
+        <v>484</v>
+      </c>
+      <c r="L69" t="s">
+        <v>485</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>463</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>487</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>488</v>
+      </c>
+      <c r="J70" t="s">
+        <v>489</v>
+      </c>
+      <c r="K70" t="s">
+        <v>490</v>
+      </c>
+      <c r="L70" t="s">
+        <v>491</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>493</v>
+      </c>
+      <c r="J71" t="s">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s">
+        <v>496</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>497</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>499</v>
+      </c>
+      <c r="J72" t="s">
+        <v>500</v>
+      </c>
+      <c r="K72" t="s">
+        <v>501</v>
+      </c>
+      <c r="L72" t="s">
+        <v>502</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>497</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>503</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>504</v>
+      </c>
+      <c r="J73" t="s">
+        <v>505</v>
+      </c>
+      <c r="K73" t="s">
+        <v>506</v>
+      </c>
+      <c r="L73" t="s">
+        <v>507</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>497</v>
+      </c>
+      <c r="O73" t="s">
+        <v>146</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" t="s">
+        <v>510</v>
+      </c>
+      <c r="K74" t="s">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s">
+        <v>512</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>497</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66334</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>514</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>515</v>
+      </c>
+      <c r="J75" t="s">
+        <v>516</v>
+      </c>
+      <c r="K75" t="s">
+        <v>517</v>
+      </c>
+      <c r="L75" t="s">
+        <v>518</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>497</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
